--- a/RunningYOLO/dataBase.xlsx
+++ b/RunningYOLO/dataBase.xlsx
@@ -3,28 +3,34 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="60" windowWidth="28800" windowHeight="18000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="M_Kolomenskaya1_1_10_31_E" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="M_Kolomenskaya21_3_12_142_NW" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Aptos Narrow"/>
       <charset val="204"/>
       <family val="2"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="12"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,11 +43,18 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left>
+        <color rgb="FF000000"/>
+      </left>
+      <right>
+        <color rgb="FF000000"/>
+      </right>
+      <top>
+        <color rgb="FF000000"/>
+      </top>
+      <bottom>
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -51,9 +64,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -126,9 +139,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -136,143 +149,49 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="EEECE1"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="1F497D"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Aptos Narrow"/>
+        <a:ea typeface="SimSun"/>
+        <a:cs typeface="Times New Roman"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -281,162 +200,195 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr"/>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults>
-    <a:lnDef>
+    <a:spDef>
       <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
+      <a:bodyPr>
+        <a:prstTxWarp prst="textNoShape">
+          <a:avLst/>
+        </a:prstTxWarp>
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr>
+          <a:defRPr/>
+        </a:defPPr>
+      </a:lstStyle>
       <a:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:lnRef>
         <a:fillRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="1">
+        <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </a:style>
-    </a:lnDef>
+    </a:spDef>
   </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -446,13 +398,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.56391" defaultRowHeight="15.8"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
@@ -461,16 +413,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1134.5</v>
+        <v>412.83984375</v>
       </c>
       <c r="B2" t="n">
-        <v>543</v>
+        <v>375.029296875</v>
       </c>
       <c r="C2" t="n">
-        <v>69.24609375</v>
+        <v>124.28515625</v>
       </c>
       <c r="D2" t="n">
-        <v>65.75</v>
+        <v>105.81640625</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -481,16 +433,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>429</v>
+        <v>694.00390625</v>
       </c>
       <c r="B3" t="n">
-        <v>570.25</v>
+        <v>584</v>
       </c>
       <c r="C3" t="n">
-        <v>144.498046875</v>
+        <v>138.556640625</v>
       </c>
       <c r="D3" t="n">
-        <v>70.75</v>
+        <v>80.09375</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -501,16 +453,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>707.998046875</v>
+        <v>564.875</v>
       </c>
       <c r="B4" t="n">
-        <v>572.7421875</v>
+        <v>364</v>
       </c>
       <c r="C4" t="n">
-        <v>137.751953125</v>
+        <v>53.15234375</v>
       </c>
       <c r="D4" t="n">
-        <v>87.7578125</v>
+        <v>105.99609375</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -521,16 +473,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>717.001953125</v>
+        <v>390</v>
       </c>
       <c r="B5" t="n">
-        <v>344.9921875</v>
+        <v>54.998046875</v>
       </c>
       <c r="C5" t="n">
-        <v>64.75</v>
+        <v>40.904296875</v>
       </c>
       <c r="D5" t="n">
-        <v>128.7578125</v>
+        <v>39.97265625</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -541,36 +493,36 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>426.953125</v>
+        <v>1156.158203125</v>
       </c>
       <c r="B6" t="n">
-        <v>373.90625</v>
+        <v>535.9140625</v>
       </c>
       <c r="C6" t="n">
-        <v>120.046875</v>
+        <v>73.30859375</v>
       </c>
       <c r="D6" t="n">
-        <v>115.109375</v>
+        <v>71.921875</v>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>556.5</v>
+        <v>722.876953125</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>349.37109375</v>
       </c>
       <c r="C7" t="n">
-        <v>59.501953125</v>
+        <v>58.404296875</v>
       </c>
       <c r="D7" t="n">
-        <v>41</v>
+        <v>124.56640625</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -581,16 +533,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>566.251953125</v>
+        <v>633.87890625</v>
       </c>
       <c r="B8" t="n">
-        <v>361.75</v>
+        <v>360.033203125</v>
       </c>
       <c r="C8" t="n">
-        <v>60.5</v>
+        <v>56.119140625</v>
       </c>
       <c r="D8" t="n">
-        <v>108.25</v>
+        <v>108.875</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -601,16 +553,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>347.75</v>
+        <v>382.935546875</v>
       </c>
       <c r="B9" t="n">
-        <v>62.25</v>
+        <v>483.93359375</v>
       </c>
       <c r="C9" t="n">
-        <v>37.25</v>
+        <v>147.216796875</v>
       </c>
       <c r="D9" t="n">
-        <v>38</v>
+        <v>78.03125</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -621,16 +573,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>676.501953125</v>
+        <v>612</v>
       </c>
       <c r="B10" t="n">
-        <v>21.75</v>
+        <v>23.154296875</v>
       </c>
       <c r="C10" t="n">
-        <v>58.748046875</v>
+        <v>61.123046875</v>
       </c>
       <c r="D10" t="n">
-        <v>40.5</v>
+        <v>44.875</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -641,16 +593,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>441</v>
+        <v>430.001953125</v>
       </c>
       <c r="B11" t="n">
-        <v>49</v>
+        <v>46.09375</v>
       </c>
       <c r="C11" t="n">
-        <v>56.75</v>
+        <v>48.09375</v>
       </c>
       <c r="D11" t="n">
-        <v>36</v>
+        <v>40.87890625</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -661,16 +613,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>376.751953125</v>
+        <v>503.15234375</v>
       </c>
       <c r="B12" t="n">
-        <v>492.74609375</v>
+        <v>40</v>
       </c>
       <c r="C12" t="n">
-        <v>136.99609375</v>
+        <v>46.755859375</v>
       </c>
       <c r="D12" t="n">
-        <v>74.25390625</v>
+        <v>40.02734375</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -681,16 +633,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>610.75</v>
+        <v>570.03125</v>
       </c>
       <c r="B13" t="n">
-        <v>16.25</v>
+        <v>33.904296875</v>
       </c>
       <c r="C13" t="n">
-        <v>63</v>
+        <v>52.03515625</v>
       </c>
       <c r="D13" t="n">
-        <v>50</v>
+        <v>40.068359375</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -701,16 +653,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>500.75</v>
+        <v>347.029296875</v>
       </c>
       <c r="B14" t="n">
-        <v>42</v>
+        <v>64.876953125</v>
       </c>
       <c r="C14" t="n">
-        <v>53.251953125</v>
+        <v>37.001953125</v>
       </c>
       <c r="D14" t="n">
-        <v>38.25</v>
+        <v>34.125</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -721,35 +673,152 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>637.9921875</v>
+        <v>377.869140625</v>
       </c>
       <c r="B15" t="n">
-        <v>356</v>
+        <v>560.126953125</v>
       </c>
       <c r="C15" t="n">
-        <v>57.0234375</v>
+        <v>138.130859375</v>
       </c>
       <c r="D15" t="n">
-        <v>115.0078125</v>
+        <v>72.0625</v>
       </c>
       <c r="E15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>701.904296875</v>
+      </c>
+      <c r="B16" t="n">
+        <v>20.029296875</v>
+      </c>
+      <c r="C16" t="n">
+        <v>56.048828125</v>
+      </c>
+      <c r="D16" t="n">
+        <v>43.970703125</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>666.125</v>
+      </c>
+      <c r="B17" t="n">
+        <v>26.03125</v>
+      </c>
+      <c r="C17" t="n">
+        <v>45.904296875</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.970703125</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>831</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>448</v>
+      </c>
+      <c r="D18" t="n">
+        <v>512</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>350</v>
+      </c>
+      <c r="B19" t="n">
+        <v>108</v>
+      </c>
+      <c r="C19" t="n">
+        <v>482</v>
+      </c>
+      <c r="D19" t="n">
+        <v>225</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="n">
+        <v>330</v>
+      </c>
+      <c r="D20" t="n">
+        <v>716</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>911</v>
+      </c>
+      <c r="B21" t="n">
+        <v>491</v>
+      </c>
+      <c r="C21" t="n">
+        <v>237</v>
+      </c>
+      <c r="D21" t="n">
+        <v>228</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-1</v>
+      </c>
+    </row>
     <row r="22"/>
     <row r="23"/>
     <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="1" fitToWidth="0" pageOrder="overThenDown"/>
 </worksheet>
 </file>
 
@@ -761,11 +830,11 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView view="normal" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.56391" defaultRowHeight="15.8"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
@@ -774,5 +843,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="1" fitToWidth="0" pageOrder="overThenDown"/>
 </worksheet>
 </file>
--- a/RunningYOLO/dataBase.xlsx
+++ b/RunningYOLO/dataBase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="60" windowWidth="28800" windowHeight="18000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="60" windowWidth="28800" windowHeight="18000" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="M_Kolomenskaya1_1_10_31_E" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,8 +20,6 @@
   <fonts count="2">
     <font>
       <name val="Aptos Narrow"/>
-      <charset val="204"/>
-      <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="12"/>
     </font>
@@ -398,10 +396,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.56391" defaultRowHeight="15.8"/>
@@ -413,16 +411,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>412.83984375</v>
+        <v>693.939453125</v>
       </c>
       <c r="B2" t="n">
-        <v>375.029296875</v>
+        <v>584.9375</v>
       </c>
       <c r="C2" t="n">
-        <v>124.28515625</v>
+        <v>135.0625</v>
       </c>
       <c r="D2" t="n">
-        <v>105.81640625</v>
+        <v>79.09375</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -433,16 +431,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>694.00390625</v>
+        <v>423.029296875</v>
       </c>
       <c r="B3" t="n">
-        <v>584</v>
+        <v>401.998046875</v>
       </c>
       <c r="C3" t="n">
-        <v>138.556640625</v>
+        <v>101.87890625</v>
       </c>
       <c r="D3" t="n">
-        <v>80.09375</v>
+        <v>79.97265625</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -453,16 +451,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>564.875</v>
+        <v>602</v>
       </c>
       <c r="B4" t="n">
-        <v>364</v>
+        <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>53.15234375</v>
+        <v>67</v>
       </c>
       <c r="D4" t="n">
-        <v>105.99609375</v>
+        <v>51.03125</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -473,16 +471,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>390</v>
+        <v>383.9375</v>
       </c>
       <c r="B5" t="n">
-        <v>54.998046875</v>
+        <v>483.099609375</v>
       </c>
       <c r="C5" t="n">
-        <v>40.904296875</v>
+        <v>147.029296875</v>
       </c>
       <c r="D5" t="n">
-        <v>39.97265625</v>
+        <v>77.96484375</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -493,16 +491,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1156.158203125</v>
+        <v>382.90625</v>
       </c>
       <c r="B6" t="n">
-        <v>535.9140625</v>
+        <v>560.970703125</v>
       </c>
       <c r="C6" t="n">
-        <v>73.30859375</v>
+        <v>134.126953125</v>
       </c>
       <c r="D6" t="n">
-        <v>71.921875</v>
+        <v>74.05859375</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -513,16 +511,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>722.876953125</v>
+        <v>434</v>
       </c>
       <c r="B7" t="n">
-        <v>349.37109375</v>
+        <v>38.09375</v>
       </c>
       <c r="C7" t="n">
-        <v>58.404296875</v>
+        <v>56</v>
       </c>
       <c r="D7" t="n">
-        <v>124.56640625</v>
+        <v>49.90625</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -533,16 +531,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>633.87890625</v>
+        <v>562.0625</v>
       </c>
       <c r="B8" t="n">
-        <v>360.033203125</v>
+        <v>351.96875</v>
       </c>
       <c r="C8" t="n">
-        <v>56.119140625</v>
+        <v>55.064453125</v>
       </c>
       <c r="D8" t="n">
-        <v>108.875</v>
+        <v>121.029296875</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -553,16 +551,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>382.935546875</v>
+        <v>391</v>
       </c>
       <c r="B9" t="n">
-        <v>483.93359375</v>
+        <v>54.96875</v>
       </c>
       <c r="C9" t="n">
-        <v>147.216796875</v>
+        <v>43</v>
       </c>
       <c r="D9" t="n">
-        <v>78.03125</v>
+        <v>41.0546875</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -573,16 +571,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>612</v>
+        <v>696</v>
       </c>
       <c r="B10" t="n">
-        <v>23.154296875</v>
+        <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>61.123046875</v>
+        <v>56.03125</v>
       </c>
       <c r="D10" t="n">
-        <v>44.875</v>
+        <v>48</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -593,16 +591,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>430.001953125</v>
+        <v>504</v>
       </c>
       <c r="B11" t="n">
-        <v>46.09375</v>
+        <v>37.03125</v>
       </c>
       <c r="C11" t="n">
-        <v>48.09375</v>
+        <v>49</v>
       </c>
       <c r="D11" t="n">
-        <v>40.87890625</v>
+        <v>45.96875</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -613,16 +611,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>503.15234375</v>
+        <v>347.9375</v>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>64.96875</v>
       </c>
       <c r="C12" t="n">
-        <v>46.755859375</v>
+        <v>38.09375</v>
       </c>
       <c r="D12" t="n">
-        <v>40.02734375</v>
+        <v>36.0625</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -633,16 +631,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>570.03125</v>
+        <v>543.03125</v>
       </c>
       <c r="B13" t="n">
-        <v>33.904296875</v>
+        <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>52.03515625</v>
+        <v>52.890625</v>
       </c>
       <c r="D13" t="n">
-        <v>40.068359375</v>
+        <v>47.96875</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -653,16 +651,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>347.029296875</v>
+        <v>1153</v>
       </c>
       <c r="B14" t="n">
-        <v>64.876953125</v>
+        <v>537.126953125</v>
       </c>
       <c r="C14" t="n">
-        <v>37.001953125</v>
+        <v>61.05078125</v>
       </c>
       <c r="D14" t="n">
-        <v>34.125</v>
+        <v>69.900390625</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -671,151 +669,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>377.869140625</v>
-      </c>
-      <c r="B15" t="n">
-        <v>560.126953125</v>
-      </c>
-      <c r="C15" t="n">
-        <v>138.130859375</v>
-      </c>
-      <c r="D15" t="n">
-        <v>72.0625</v>
-      </c>
-      <c r="E15" t="n">
-        <v>10</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>701.904296875</v>
-      </c>
-      <c r="B16" t="n">
-        <v>20.029296875</v>
-      </c>
-      <c r="C16" t="n">
-        <v>56.048828125</v>
-      </c>
-      <c r="D16" t="n">
-        <v>43.970703125</v>
-      </c>
-      <c r="E16" t="n">
-        <v>10</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>666.125</v>
-      </c>
-      <c r="B17" t="n">
-        <v>26.03125</v>
-      </c>
-      <c r="C17" t="n">
-        <v>45.904296875</v>
-      </c>
-      <c r="D17" t="n">
-        <v>38.970703125</v>
-      </c>
-      <c r="E17" t="n">
-        <v>10</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>831</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>448</v>
-      </c>
-      <c r="D18" t="n">
-        <v>512</v>
-      </c>
-      <c r="E18" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>350</v>
-      </c>
-      <c r="B19" t="n">
-        <v>108</v>
-      </c>
-      <c r="C19" t="n">
-        <v>482</v>
-      </c>
-      <c r="D19" t="n">
-        <v>225</v>
-      </c>
-      <c r="E19" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>0</v>
-      </c>
-      <c r="B20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" t="n">
-        <v>330</v>
-      </c>
-      <c r="D20" t="n">
-        <v>716</v>
-      </c>
-      <c r="E20" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>911</v>
-      </c>
-      <c r="B21" t="n">
-        <v>491</v>
-      </c>
-      <c r="C21" t="n">
-        <v>237</v>
-      </c>
-      <c r="D21" t="n">
-        <v>228</v>
-      </c>
-      <c r="E21" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="1" fitToWidth="0" pageOrder="overThenDown"/>

--- a/RunningYOLO/dataBase.xlsx
+++ b/RunningYOLO/dataBase.xlsx
@@ -396,7 +396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
@@ -406,24 +406,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>693.939453125</v>
+        <v>693.4367962479591</v>
       </c>
       <c r="B2" t="n">
-        <v>584.9375</v>
+        <v>586.9245281219482</v>
       </c>
       <c r="C2" t="n">
-        <v>135.0625</v>
+        <v>138.0943927764893</v>
       </c>
       <c r="D2" t="n">
-        <v>79.09375</v>
+        <v>75.52987957000732</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -451,19 +451,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>602</v>
+        <v>622.0667114257812</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>19.90673828125</v>
       </c>
       <c r="C4" t="n">
-        <v>67</v>
+        <v>53.90167236328125</v>
       </c>
       <c r="D4" t="n">
-        <v>51.03125</v>
+        <v>52.06390571594238</v>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -471,19 +471,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>383.9375</v>
+        <v>394.1977233886719</v>
       </c>
       <c r="B5" t="n">
-        <v>483.099609375</v>
+        <v>502.9751462936401</v>
       </c>
       <c r="C5" t="n">
-        <v>147.029296875</v>
+        <v>127.8066549301147</v>
       </c>
       <c r="D5" t="n">
-        <v>77.96484375</v>
+        <v>69.0185375213623</v>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -506,24 +506,24 @@
         <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>434</v>
+        <v>431.9749450683594</v>
       </c>
       <c r="B7" t="n">
-        <v>38.09375</v>
+        <v>42.96081829071045</v>
       </c>
       <c r="C7" t="n">
-        <v>56</v>
+        <v>50.02508544921875</v>
       </c>
       <c r="D7" t="n">
-        <v>49.90625</v>
+        <v>46.02340412139893</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -531,19 +531,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>562.0625</v>
+        <v>574.999605178833</v>
       </c>
       <c r="B8" t="n">
-        <v>351.96875</v>
+        <v>353.9982595443726</v>
       </c>
       <c r="C8" t="n">
-        <v>55.064453125</v>
+        <v>48.00021559000015</v>
       </c>
       <c r="D8" t="n">
-        <v>121.029296875</v>
+        <v>115.0009164214134</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -551,19 +551,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>391</v>
+        <v>386.9562072753906</v>
       </c>
       <c r="B9" t="n">
-        <v>54.96875</v>
+        <v>52.98565578460693</v>
       </c>
       <c r="C9" t="n">
-        <v>43</v>
+        <v>46.52523803710938</v>
       </c>
       <c r="D9" t="n">
-        <v>41.0546875</v>
+        <v>42.0233781337738</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -611,19 +611,19 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>347.9375</v>
+        <v>346.9980754852295</v>
       </c>
       <c r="B12" t="n">
-        <v>64.96875</v>
+        <v>59.42498683929443</v>
       </c>
       <c r="C12" t="n">
-        <v>38.09375</v>
+        <v>44.9851713180542</v>
       </c>
       <c r="D12" t="n">
-        <v>36.0625</v>
+        <v>44.31930732727051</v>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -666,14 +666,157 @@
         <v>10</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>575.963134765625</v>
+      </c>
+      <c r="B15" t="n">
+        <v>31.976806640625</v>
+      </c>
+      <c r="C15" t="n">
+        <v>53.06591796875</v>
+      </c>
+      <c r="D15" t="n">
+        <v>44.03759765625</v>
+      </c>
+      <c r="E15" t="n">
+        <v>15</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>666.015625</v>
+      </c>
+      <c r="B16" t="n">
+        <v>11.029541015625</v>
+      </c>
+      <c r="C16" t="n">
+        <v>58.95556640625</v>
+      </c>
+      <c r="D16" t="n">
+        <v>57.953857421875</v>
+      </c>
+      <c r="E16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>438.9697265625</v>
+      </c>
+      <c r="B17" t="n">
+        <v>366.955078125</v>
+      </c>
+      <c r="C17" t="n">
+        <v>94.0302734375</v>
+      </c>
+      <c r="D17" t="n">
+        <v>100.0439453125</v>
+      </c>
+      <c r="E17" t="n">
+        <v>11</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>438.970703125</v>
+      </c>
+      <c r="B18" t="n">
+        <v>366.955078125</v>
+      </c>
+      <c r="C18" t="n">
+        <v>94.029296875</v>
+      </c>
+      <c r="D18" t="n">
+        <v>100.04296875</v>
+      </c>
+      <c r="E18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>477.46875</v>
+      </c>
+      <c r="B19" t="n">
+        <v>41.46875</v>
+      </c>
+      <c r="C19" t="n">
+        <v>52.53125</v>
+      </c>
+      <c r="D19" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>477.4375</v>
+      </c>
+      <c r="B20" t="n">
+        <v>41.4375</v>
+      </c>
+      <c r="C20" t="n">
+        <v>52.5625</v>
+      </c>
+      <c r="D20" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>8</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>477.375</v>
+      </c>
+      <c r="B21" t="n">
+        <v>41.375</v>
+      </c>
+      <c r="C21" t="n">
+        <v>52.625</v>
+      </c>
+      <c r="D21" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>7</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="1" fitToWidth="0" pageOrder="overThenDown"/>

--- a/RunningYOLO/dataBase.xlsx
+++ b/RunningYOLO/dataBase.xlsx
@@ -396,7 +396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
@@ -406,24 +406,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>693.4367962479591</v>
+        <v>397.2373046875</v>
       </c>
       <c r="B2" t="n">
-        <v>586.9245281219482</v>
+        <v>564</v>
       </c>
       <c r="C2" t="n">
-        <v>138.0943927764893</v>
+        <v>165.7626953125</v>
       </c>
       <c r="D2" t="n">
-        <v>75.52987957000732</v>
+        <v>77.6748046875</v>
       </c>
       <c r="E2" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -431,19 +431,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>423.029296875</v>
+        <v>390.822021484375</v>
       </c>
       <c r="B3" t="n">
-        <v>401.998046875</v>
+        <v>49.822021484375</v>
       </c>
       <c r="C3" t="n">
-        <v>101.87890625</v>
+        <v>41.520751953125</v>
       </c>
       <c r="D3" t="n">
-        <v>79.97265625</v>
+        <v>46.177978515625</v>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -451,19 +451,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>622.0667114257812</v>
+        <v>771</v>
       </c>
       <c r="B4" t="n">
-        <v>19.90673828125</v>
+        <v>18.21258544921875</v>
       </c>
       <c r="C4" t="n">
-        <v>53.90167236328125</v>
+        <v>43.3955078125</v>
       </c>
       <c r="D4" t="n">
-        <v>52.06390571594238</v>
+        <v>46.97491455078125</v>
       </c>
       <c r="E4" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -471,19 +471,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>394.1977233886719</v>
+        <v>559</v>
       </c>
       <c r="B5" t="n">
-        <v>502.9751462936401</v>
+        <v>30.2373046875</v>
       </c>
       <c r="C5" t="n">
-        <v>127.8066549301147</v>
+        <v>52</v>
       </c>
       <c r="D5" t="n">
-        <v>69.0185375213623</v>
+        <v>45</v>
       </c>
       <c r="E5" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -491,39 +491,39 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>382.90625</v>
+        <v>606</v>
       </c>
       <c r="B6" t="n">
-        <v>560.970703125</v>
+        <v>33</v>
       </c>
       <c r="C6" t="n">
-        <v>134.126953125</v>
+        <v>46.7626953125</v>
       </c>
       <c r="D6" t="n">
-        <v>74.05859375</v>
+        <v>38</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>431.9749450683594</v>
+        <v>650.940673828125</v>
       </c>
       <c r="B7" t="n">
-        <v>42.96081829071045</v>
+        <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>50.02508544921875</v>
+        <v>52.40673828125</v>
       </c>
       <c r="D7" t="n">
-        <v>46.02340412139893</v>
+        <v>43.177978515625</v>
       </c>
       <c r="E7" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -531,19 +531,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>574.999605178833</v>
+        <v>473</v>
       </c>
       <c r="B8" t="n">
-        <v>353.9982595443726</v>
+        <v>41.7626953125</v>
       </c>
       <c r="C8" t="n">
-        <v>48.00021559000015</v>
+        <v>46.2373046875</v>
       </c>
       <c r="D8" t="n">
-        <v>115.0009164214134</v>
+        <v>41.2373046875</v>
       </c>
       <c r="E8" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -551,19 +551,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>386.9562072753906</v>
+        <v>697</v>
       </c>
       <c r="B9" t="n">
-        <v>52.98565578460693</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
-        <v>46.52523803710938</v>
+        <v>53.2880859375</v>
       </c>
       <c r="D9" t="n">
-        <v>42.0233781337738</v>
+        <v>41</v>
       </c>
       <c r="E9" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -571,19 +571,19 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>696</v>
+        <v>696.31640625</v>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>585</v>
       </c>
       <c r="C10" t="n">
-        <v>56.03125</v>
+        <v>133.68359375</v>
       </c>
       <c r="D10" t="n">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -591,19 +591,19 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>504</v>
+        <v>510.31640625</v>
       </c>
       <c r="B11" t="n">
-        <v>37.03125</v>
+        <v>15.31640625</v>
       </c>
       <c r="C11" t="n">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D11" t="n">
-        <v>45.96875</v>
+        <v>62.68359375</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -611,19 +611,19 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>346.9980754852295</v>
+        <v>430</v>
       </c>
       <c r="B12" t="n">
-        <v>59.42498683929443</v>
+        <v>364</v>
       </c>
       <c r="C12" t="n">
-        <v>44.9851713180542</v>
+        <v>102</v>
       </c>
       <c r="D12" t="n">
-        <v>44.31930732727051</v>
+        <v>112</v>
       </c>
       <c r="E12" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -631,19 +631,19 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>543.03125</v>
+        <v>380</v>
       </c>
       <c r="B13" t="n">
-        <v>29</v>
+        <v>490</v>
       </c>
       <c r="C13" t="n">
-        <v>52.890625</v>
+        <v>138</v>
       </c>
       <c r="D13" t="n">
-        <v>47.96875</v>
+        <v>77</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -651,39 +651,39 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1153</v>
+        <v>716</v>
       </c>
       <c r="B14" t="n">
-        <v>537.126953125</v>
+        <v>363</v>
       </c>
       <c r="C14" t="n">
-        <v>61.05078125</v>
+        <v>58</v>
       </c>
       <c r="D14" t="n">
-        <v>69.900390625</v>
+        <v>101</v>
       </c>
       <c r="E14" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>575.963134765625</v>
+        <v>641</v>
       </c>
       <c r="B15" t="n">
-        <v>31.976806640625</v>
+        <v>353</v>
       </c>
       <c r="C15" t="n">
-        <v>53.06591796875</v>
+        <v>60</v>
       </c>
       <c r="D15" t="n">
-        <v>44.03759765625</v>
+        <v>118</v>
       </c>
       <c r="E15" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -691,19 +691,19 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>666.015625</v>
+        <v>1153</v>
       </c>
       <c r="B16" t="n">
-        <v>11.029541015625</v>
+        <v>545</v>
       </c>
       <c r="C16" t="n">
-        <v>58.95556640625</v>
+        <v>54</v>
       </c>
       <c r="D16" t="n">
-        <v>57.953857421875</v>
+        <v>63</v>
       </c>
       <c r="E16" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -711,19 +711,19 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>438.9697265625</v>
+        <v>570.75</v>
       </c>
       <c r="B17" t="n">
-        <v>366.955078125</v>
+        <v>356</v>
       </c>
       <c r="C17" t="n">
-        <v>94.0302734375</v>
+        <v>52.5</v>
       </c>
       <c r="D17" t="n">
-        <v>100.0439453125</v>
+        <v>114</v>
       </c>
       <c r="E17" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -731,19 +731,19 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>438.970703125</v>
+        <v>342</v>
       </c>
       <c r="B18" t="n">
-        <v>366.955078125</v>
+        <v>57</v>
       </c>
       <c r="C18" t="n">
-        <v>94.029296875</v>
+        <v>44</v>
       </c>
       <c r="D18" t="n">
-        <v>100.04296875</v>
+        <v>46</v>
       </c>
       <c r="E18" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -751,72 +751,24 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>477.46875</v>
+        <v>433</v>
       </c>
       <c r="B19" t="n">
-        <v>41.46875</v>
+        <v>41</v>
       </c>
       <c r="C19" t="n">
-        <v>52.53125</v>
+        <v>44</v>
       </c>
       <c r="D19" t="n">
-        <v>42.5</v>
+        <v>48</v>
       </c>
       <c r="E19" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>477.4375</v>
-      </c>
-      <c r="B20" t="n">
-        <v>41.4375</v>
-      </c>
-      <c r="C20" t="n">
-        <v>52.5625</v>
-      </c>
-      <c r="D20" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="E20" t="n">
-        <v>8</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>477.375</v>
-      </c>
-      <c r="B21" t="n">
-        <v>41.375</v>
-      </c>
-      <c r="C21" t="n">
-        <v>52.625</v>
-      </c>
-      <c r="D21" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="E21" t="n">
-        <v>7</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="1" fitToWidth="0" pageOrder="overThenDown"/>
@@ -829,7 +781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -839,6 +791,466 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1651.7626953125</v>
+      </c>
+      <c r="B2" t="n">
+        <v>764.94921875</v>
+      </c>
+      <c r="C2" t="n">
+        <v>99.2880859375</v>
+      </c>
+      <c r="D2" t="n">
+        <v>75.474609375</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1758.525390625</v>
+      </c>
+      <c r="B3" t="n">
+        <v>754</v>
+      </c>
+      <c r="C3" t="n">
+        <v>84.7626953125</v>
+      </c>
+      <c r="D3" t="n">
+        <v>63.1865234375</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>447.8984375</v>
+      </c>
+      <c r="B4" t="n">
+        <v>531.7626953125</v>
+      </c>
+      <c r="C4" t="n">
+        <v>57.8134765625</v>
+      </c>
+      <c r="D4" t="n">
+        <v>107.7255859375</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>456.3427734375</v>
+      </c>
+      <c r="B5" t="n">
+        <v>449.423828125</v>
+      </c>
+      <c r="C5" t="n">
+        <v>51.1318359375</v>
+      </c>
+      <c r="D5" t="n">
+        <v>81.3916015625</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>86.2373046875</v>
+      </c>
+      <c r="B6" t="n">
+        <v>487.7119140625</v>
+      </c>
+      <c r="C6" t="n">
+        <v>31.423828125</v>
+      </c>
+      <c r="D6" t="n">
+        <v>86.2373046875</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>18.2373046875</v>
+      </c>
+      <c r="B7" t="n">
+        <v>498.94921875</v>
+      </c>
+      <c r="C7" t="n">
+        <v>28.7119140625</v>
+      </c>
+      <c r="D7" t="n">
+        <v>76.525390625</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>314.8984375</v>
+      </c>
+      <c r="B8" t="n">
+        <v>457.0849609375</v>
+      </c>
+      <c r="C8" t="n">
+        <v>54.576171875</v>
+      </c>
+      <c r="D8" t="n">
+        <v>95.3388671875</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>51.7119140625</v>
+      </c>
+      <c r="B9" t="n">
+        <v>493.0458984375</v>
+      </c>
+      <c r="C9" t="n">
+        <v>28.94921875</v>
+      </c>
+      <c r="D9" t="n">
+        <v>79.666015625</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>505.6611328125</v>
+      </c>
+      <c r="C10" t="n">
+        <v>15</v>
+      </c>
+      <c r="D10" t="n">
+        <v>72.841796875</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>189.474609375</v>
+      </c>
+      <c r="B11" t="n">
+        <v>478.94921875</v>
+      </c>
+      <c r="C11" t="n">
+        <v>39.7119140625</v>
+      </c>
+      <c r="D11" t="n">
+        <v>87.1298828125</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>131.2373046875</v>
+      </c>
+      <c r="B12" t="n">
+        <v>480.9658203125</v>
+      </c>
+      <c r="C12" t="n">
+        <v>41.4228515625</v>
+      </c>
+      <c r="D12" t="n">
+        <v>86.796875</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>234</v>
+      </c>
+      <c r="B13" t="n">
+        <v>844</v>
+      </c>
+      <c r="C13" t="n">
+        <v>104</v>
+      </c>
+      <c r="D13" t="n">
+        <v>81</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>396</v>
+      </c>
+      <c r="B14" t="n">
+        <v>743</v>
+      </c>
+      <c r="C14" t="n">
+        <v>69</v>
+      </c>
+      <c r="D14" t="n">
+        <v>130</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>557.31640625</v>
+      </c>
+      <c r="B15" t="n">
+        <v>814</v>
+      </c>
+      <c r="C15" t="n">
+        <v>121.68359375</v>
+      </c>
+      <c r="D15" t="n">
+        <v>123</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1364</v>
+      </c>
+      <c r="B16" t="n">
+        <v>813</v>
+      </c>
+      <c r="C16" t="n">
+        <v>153.421875</v>
+      </c>
+      <c r="D16" t="n">
+        <v>85</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>689</v>
+      </c>
+      <c r="B17" t="n">
+        <v>868</v>
+      </c>
+      <c r="C17" t="n">
+        <v>147</v>
+      </c>
+      <c r="D17" t="n">
+        <v>77</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1527</v>
+      </c>
+      <c r="B18" t="n">
+        <v>787</v>
+      </c>
+      <c r="C18" t="n">
+        <v>112</v>
+      </c>
+      <c r="D18" t="n">
+        <v>84</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>128</v>
+      </c>
+      <c r="B19" t="n">
+        <v>822</v>
+      </c>
+      <c r="C19" t="n">
+        <v>85</v>
+      </c>
+      <c r="D19" t="n">
+        <v>67</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1026.4375</v>
+      </c>
+      <c r="B20" t="n">
+        <v>847</v>
+      </c>
+      <c r="C20" t="n">
+        <v>155.5625</v>
+      </c>
+      <c r="D20" t="n">
+        <v>90</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>868</v>
+      </c>
+      <c r="B21" t="n">
+        <v>860</v>
+      </c>
+      <c r="C21" t="n">
+        <v>142</v>
+      </c>
+      <c r="D21" t="n">
+        <v>80</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>54</v>
+      </c>
+      <c r="B22" t="n">
+        <v>808</v>
+      </c>
+      <c r="C22" t="n">
+        <v>68</v>
+      </c>
+      <c r="D22" t="n">
+        <v>66</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1200</v>
+      </c>
+      <c r="B23" t="n">
+        <v>833</v>
+      </c>
+      <c r="C23" t="n">
+        <v>146</v>
+      </c>
+      <c r="D23" t="n">
+        <v>90</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>239</v>
+      </c>
+      <c r="B24" t="n">
+        <v>463</v>
+      </c>
+      <c r="C24" t="n">
+        <v>60</v>
+      </c>
+      <c r="D24" t="n">
+        <v>98</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
         <v>0</v>
       </c>
     </row>

--- a/RunningYOLO/dataBase.xlsx
+++ b/RunningYOLO/dataBase.xlsx
@@ -406,21 +406,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>397.2373046875</v>
+        <v>559</v>
       </c>
       <c r="B2" t="n">
-        <v>564</v>
+        <v>30.2373046875</v>
       </c>
       <c r="C2" t="n">
-        <v>165.7626953125</v>
+        <v>52.2373046875</v>
       </c>
       <c r="D2" t="n">
-        <v>77.6748046875</v>
+        <v>45.525390625</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -431,16 +431,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>390.822021484375</v>
+        <v>771</v>
       </c>
       <c r="B3" t="n">
-        <v>49.822021484375</v>
+        <v>19</v>
       </c>
       <c r="C3" t="n">
-        <v>41.520751953125</v>
+        <v>43.158203125</v>
       </c>
       <c r="D3" t="n">
-        <v>46.177978515625</v>
+        <v>47</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -451,19 +451,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>771</v>
+        <v>606.2373046875</v>
       </c>
       <c r="B4" t="n">
-        <v>18.21258544921875</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
-        <v>43.3955078125</v>
+        <v>46.525390625</v>
       </c>
       <c r="D4" t="n">
-        <v>46.97491455078125</v>
+        <v>38</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -471,16 +471,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>559</v>
+        <v>650.6292114257812</v>
       </c>
       <c r="B5" t="n">
-        <v>30.2373046875</v>
+        <v>25.16314697265625</v>
       </c>
       <c r="C5" t="n">
-        <v>52</v>
+        <v>51.99774169921875</v>
       </c>
       <c r="D5" t="n">
-        <v>45</v>
+        <v>42.83685302734375</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -491,19 +491,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>606</v>
+        <v>473.2373046875</v>
       </c>
       <c r="B6" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C6" t="n">
         <v>46.7626953125</v>
       </c>
       <c r="D6" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -511,16 +511,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>650.940673828125</v>
+        <v>697.68359375</v>
       </c>
       <c r="B7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="n">
-        <v>52.40673828125</v>
+        <v>53.525390625</v>
       </c>
       <c r="D7" t="n">
-        <v>43.177978515625</v>
+        <v>40.2373046875</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -531,16 +531,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>473</v>
+        <v>696.0791015625</v>
       </c>
       <c r="B8" t="n">
-        <v>41.7626953125</v>
+        <v>584.2373046875</v>
       </c>
       <c r="C8" t="n">
-        <v>46.2373046875</v>
+        <v>134.24609375</v>
       </c>
       <c r="D8" t="n">
-        <v>41.2373046875</v>
+        <v>83.7626953125</v>
       </c>
       <c r="E8" t="n">
         <v>6</v>
@@ -551,16 +551,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>697</v>
+        <v>509.3955078125</v>
       </c>
       <c r="B9" t="n">
-        <v>26</v>
+        <v>15.2373046875</v>
       </c>
       <c r="C9" t="n">
-        <v>53.2880859375</v>
+        <v>58.6044921875</v>
       </c>
       <c r="D9" t="n">
-        <v>41</v>
+        <v>62.7626953125</v>
       </c>
       <c r="E9" t="n">
         <v>6</v>
@@ -571,16 +571,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>696.31640625</v>
+        <v>431</v>
       </c>
       <c r="B10" t="n">
-        <v>585</v>
+        <v>363</v>
       </c>
       <c r="C10" t="n">
-        <v>133.68359375</v>
+        <v>101.31640625</v>
       </c>
       <c r="D10" t="n">
-        <v>83</v>
+        <v>112.31640625</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -591,16 +591,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>510.31640625</v>
+        <v>378</v>
       </c>
       <c r="B11" t="n">
-        <v>15.31640625</v>
+        <v>490</v>
       </c>
       <c r="C11" t="n">
-        <v>58</v>
+        <v>139.68359375</v>
       </c>
       <c r="D11" t="n">
-        <v>62.68359375</v>
+        <v>76.31640625</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -611,16 +611,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>430</v>
+        <v>715.609375</v>
       </c>
       <c r="B12" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C12" t="n">
-        <v>102</v>
+        <v>58.390625</v>
       </c>
       <c r="D12" t="n">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -631,16 +631,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>380</v>
+        <v>641</v>
       </c>
       <c r="B13" t="n">
-        <v>490</v>
+        <v>353</v>
       </c>
       <c r="C13" t="n">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="D13" t="n">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -651,16 +651,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>716</v>
+        <v>570</v>
       </c>
       <c r="B14" t="n">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C14" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D14" t="n">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E14" t="n">
         <v>3</v>
@@ -671,16 +671,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>641</v>
+        <v>1153</v>
       </c>
       <c r="B15" t="n">
-        <v>353</v>
+        <v>544</v>
       </c>
       <c r="C15" t="n">
-        <v>60</v>
+        <v>56.5625</v>
       </c>
       <c r="D15" t="n">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="E15" t="n">
         <v>3</v>
@@ -691,16 +691,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1153</v>
+        <v>343</v>
       </c>
       <c r="B16" t="n">
-        <v>545</v>
+        <v>57</v>
       </c>
       <c r="C16" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D16" t="n">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
@@ -711,16 +711,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>570.75</v>
+        <v>433</v>
       </c>
       <c r="B17" t="n">
-        <v>356</v>
+        <v>42</v>
       </c>
       <c r="C17" t="n">
-        <v>52.5</v>
+        <v>44</v>
       </c>
       <c r="D17" t="n">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="E17" t="n">
         <v>2</v>
@@ -731,16 +731,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>342</v>
+        <v>397</v>
       </c>
       <c r="B18" t="n">
-        <v>57</v>
+        <v>565</v>
       </c>
       <c r="C18" t="n">
-        <v>44</v>
+        <v>166</v>
       </c>
       <c r="D18" t="n">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -751,16 +751,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>433</v>
+        <v>391</v>
       </c>
       <c r="B19" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C19" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D19" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -791,24 +791,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1651.7626953125</v>
+        <v>127.8557958602905</v>
       </c>
       <c r="B2" t="n">
-        <v>764.94921875</v>
+        <v>822.1809911727905</v>
       </c>
       <c r="C2" t="n">
-        <v>99.2880859375</v>
+        <v>84.61881351470947</v>
       </c>
       <c r="D2" t="n">
-        <v>75.474609375</v>
+        <v>67.05631351470947</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -816,19 +816,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1758.525390625</v>
+        <v>868.8190088272095</v>
       </c>
       <c r="B3" t="n">
-        <v>754</v>
+        <v>859.9436864852905</v>
       </c>
       <c r="C3" t="n">
-        <v>84.7626953125</v>
+        <v>140.9436864852905</v>
       </c>
       <c r="D3" t="n">
-        <v>63.1865234375</v>
+        <v>80.41829586029053</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -836,19 +836,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>447.8984375</v>
+        <v>1026.124677658081</v>
       </c>
       <c r="B4" t="n">
-        <v>531.7626953125</v>
+        <v>847.5126953125</v>
       </c>
       <c r="C4" t="n">
-        <v>57.8134765625</v>
+        <v>155.8753223419189</v>
       </c>
       <c r="D4" t="n">
-        <v>107.7255859375</v>
+        <v>89.4873046875</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -856,19 +856,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>456.3427734375</v>
+        <v>53.2373046875</v>
       </c>
       <c r="B5" t="n">
-        <v>449.423828125</v>
+        <v>807.2373046875</v>
       </c>
       <c r="C5" t="n">
-        <v>51.1318359375</v>
+        <v>67.2373046875</v>
       </c>
       <c r="D5" t="n">
-        <v>81.3916015625</v>
+        <v>66</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -876,19 +876,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>86.2373046875</v>
+        <v>1200.525390625</v>
       </c>
       <c r="B6" t="n">
-        <v>487.7119140625</v>
+        <v>832.578125</v>
       </c>
       <c r="C6" t="n">
-        <v>31.423828125</v>
+        <v>145.1865234375</v>
       </c>
       <c r="D6" t="n">
-        <v>86.2373046875</v>
+        <v>88.84375</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -896,19 +896,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>18.2373046875</v>
+        <v>239.6220703125</v>
       </c>
       <c r="B7" t="n">
-        <v>498.94921875</v>
+        <v>463.7626953125</v>
       </c>
       <c r="C7" t="n">
-        <v>28.7119140625</v>
+        <v>57.3779296875</v>
       </c>
       <c r="D7" t="n">
-        <v>76.525390625</v>
+        <v>96.2373046875</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -916,19 +916,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>314.8984375</v>
+        <v>1758.3251953125</v>
       </c>
       <c r="B8" t="n">
-        <v>457.0849609375</v>
+        <v>754</v>
       </c>
       <c r="C8" t="n">
-        <v>54.576171875</v>
+        <v>85.912109375</v>
       </c>
       <c r="D8" t="n">
-        <v>95.3388671875</v>
+        <v>61.474609375</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -936,19 +936,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>51.7119140625</v>
+        <v>446.7626953125</v>
       </c>
       <c r="B9" t="n">
-        <v>493.0458984375</v>
+        <v>532.7626953125</v>
       </c>
       <c r="C9" t="n">
-        <v>28.94921875</v>
+        <v>56.37078857421875</v>
       </c>
       <c r="D9" t="n">
-        <v>79.666015625</v>
+        <v>109</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -956,19 +956,19 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>1652</v>
       </c>
       <c r="B10" t="n">
-        <v>505.6611328125</v>
+        <v>764.2373046875</v>
       </c>
       <c r="C10" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>72.841796875</v>
+        <v>74.9912109375</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -976,19 +976,19 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>189.474609375</v>
+        <v>86</v>
       </c>
       <c r="B11" t="n">
-        <v>478.94921875</v>
+        <v>487</v>
       </c>
       <c r="C11" t="n">
-        <v>39.7119140625</v>
+        <v>29.4873046875</v>
       </c>
       <c r="D11" t="n">
-        <v>87.1298828125</v>
+        <v>84.2373046875</v>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -996,19 +996,19 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131.2373046875</v>
+        <v>457</v>
       </c>
       <c r="B12" t="n">
-        <v>480.9658203125</v>
+        <v>448.474609375</v>
       </c>
       <c r="C12" t="n">
-        <v>41.4228515625</v>
+        <v>50.140625</v>
       </c>
       <c r="D12" t="n">
-        <v>86.796875</v>
+        <v>81.7626953125</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1016,19 +1016,19 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>234</v>
+        <v>313</v>
       </c>
       <c r="B13" t="n">
-        <v>844</v>
+        <v>453.2373046875</v>
       </c>
       <c r="C13" t="n">
-        <v>104</v>
+        <v>55.6748046875</v>
       </c>
       <c r="D13" t="n">
-        <v>81</v>
+        <v>97.947265625</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1036,19 +1036,19 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>396</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>743</v>
+        <v>498</v>
       </c>
       <c r="C14" t="n">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="D14" t="n">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1056,16 +1056,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>557.31640625</v>
+        <v>188.421875</v>
       </c>
       <c r="B15" t="n">
-        <v>814</v>
+        <v>478</v>
       </c>
       <c r="C15" t="n">
-        <v>121.68359375</v>
+        <v>38.578125</v>
       </c>
       <c r="D15" t="n">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1076,16 +1076,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1364</v>
+        <v>50</v>
       </c>
       <c r="B16" t="n">
-        <v>813</v>
+        <v>491</v>
       </c>
       <c r="C16" t="n">
-        <v>153.421875</v>
+        <v>28</v>
       </c>
       <c r="D16" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1096,16 +1096,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>689</v>
+        <v>234.5625</v>
       </c>
       <c r="B17" t="n">
-        <v>868</v>
+        <v>844</v>
       </c>
       <c r="C17" t="n">
-        <v>147</v>
+        <v>103.875</v>
       </c>
       <c r="D17" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1116,16 +1116,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1527</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>787</v>
+        <v>505</v>
       </c>
       <c r="C18" t="n">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="D18" t="n">
-        <v>84</v>
+        <v>72.25</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1136,16 +1136,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>128</v>
+        <v>557</v>
       </c>
       <c r="B19" t="n">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="C19" t="n">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="D19" t="n">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="E19" t="n">
         <v>3</v>
@@ -1156,16 +1156,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1026.4375</v>
+        <v>131</v>
       </c>
       <c r="B20" t="n">
-        <v>847</v>
+        <v>485</v>
       </c>
       <c r="C20" t="n">
-        <v>155.5625</v>
+        <v>38</v>
       </c>
       <c r="D20" t="n">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E20" t="n">
         <v>3</v>
@@ -1176,16 +1176,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>868</v>
+        <v>690</v>
       </c>
       <c r="B21" t="n">
-        <v>860</v>
+        <v>869</v>
       </c>
       <c r="C21" t="n">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D21" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E21" t="n">
         <v>2</v>
@@ -1196,16 +1196,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>54</v>
+        <v>396</v>
       </c>
       <c r="B22" t="n">
-        <v>808</v>
+        <v>741</v>
       </c>
       <c r="C22" t="n">
         <v>68</v>
       </c>
       <c r="D22" t="n">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="E22" t="n">
         <v>2</v>
@@ -1216,16 +1216,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1200</v>
+        <v>1526</v>
       </c>
       <c r="B23" t="n">
-        <v>833</v>
+        <v>786</v>
       </c>
       <c r="C23" t="n">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="D23" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -1236,16 +1236,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>239</v>
+        <v>1365</v>
       </c>
       <c r="B24" t="n">
-        <v>463</v>
+        <v>814</v>
       </c>
       <c r="C24" t="n">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="D24" t="n">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>

--- a/RunningYOLO/dataBase.xlsx
+++ b/RunningYOLO/dataBase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="60" windowWidth="28800" windowHeight="18000" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="60" windowWidth="28800" windowHeight="18000" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="M_Kolomenskaya1_1_10_31_E" sheetId="1" state="visible" r:id="rId1"/>
@@ -396,9 +396,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+    <sheetView view="normal" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -406,44 +406,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>559</v>
+        <v>574.0657381014898</v>
       </c>
       <c r="B2" t="n">
-        <v>30.2373046875</v>
+        <v>544.7149777151644</v>
       </c>
       <c r="C2" t="n">
-        <v>52.2373046875</v>
+        <v>136.9342618985102</v>
       </c>
       <c r="D2" t="n">
-        <v>45.525390625</v>
+        <v>139.5394811051483</v>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>771</v>
+        <v>427.2239412264898</v>
       </c>
       <c r="B3" t="n">
-        <v>19</v>
+        <v>373.5824190573767</v>
       </c>
       <c r="C3" t="n">
-        <v>43.158203125</v>
+        <v>111.0563135147095</v>
       </c>
       <c r="D3" t="n">
-        <v>47</v>
+        <v>112.2267353490396</v>
       </c>
       <c r="E3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -451,19 +451,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>606.2373046875</v>
+        <v>344.0459197117016</v>
       </c>
       <c r="B4" t="n">
-        <v>33</v>
+        <v>53.98980775092878</v>
       </c>
       <c r="C4" t="n">
-        <v>46.525390625</v>
+        <v>43.1811927267272</v>
       </c>
       <c r="D4" t="n">
-        <v>38</v>
+        <v>48.24749693657121</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -471,19 +471,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>650.6292114257812</v>
+        <v>699.9866365389898</v>
       </c>
       <c r="B5" t="n">
-        <v>25.16314697265625</v>
+        <v>21.01127370167524</v>
       </c>
       <c r="C5" t="n">
-        <v>51.99774169921875</v>
+        <v>54.61252751563825</v>
       </c>
       <c r="D5" t="n">
-        <v>42.83685302734375</v>
+        <v>47.034847563963</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -491,19 +491,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>473.2373046875</v>
+        <v>503.0429500536993</v>
       </c>
       <c r="B6" t="n">
-        <v>42</v>
+        <v>14.25</v>
       </c>
       <c r="C6" t="n">
-        <v>46.7626953125</v>
+        <v>65.939005793869</v>
       </c>
       <c r="D6" t="n">
-        <v>41</v>
+        <v>63.56900882720947</v>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -511,19 +511,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>697.68359375</v>
+        <v>390.979413947921</v>
       </c>
       <c r="B7" t="n">
-        <v>26</v>
+        <v>53.92631524611623</v>
       </c>
       <c r="C7" t="n">
-        <v>53.525390625</v>
+        <v>41.02375726401806</v>
       </c>
       <c r="D7" t="n">
-        <v>40.2373046875</v>
+        <v>43.30079719231253</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -531,19 +531,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>696.0791015625</v>
+        <v>397.6851957901666</v>
       </c>
       <c r="B8" t="n">
-        <v>584.2373046875</v>
+        <v>564.9950983776455</v>
       </c>
       <c r="C8" t="n">
-        <v>134.24609375</v>
+        <v>167.2837266478998</v>
       </c>
       <c r="D8" t="n">
-        <v>83.7626953125</v>
+        <v>76.51435271164701</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -551,19 +551,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>509.3955078125</v>
+        <v>560.9866365389898</v>
       </c>
       <c r="B9" t="n">
-        <v>15.2373046875</v>
+        <v>29.23413347556107</v>
       </c>
       <c r="C9" t="n">
-        <v>58.6044921875</v>
+        <v>51.13541507720947</v>
       </c>
       <c r="D9" t="n">
-        <v>62.7626953125</v>
+        <v>45.81198779007718</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -571,19 +571,19 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>431</v>
+        <v>605.2239412264898</v>
       </c>
       <c r="B10" t="n">
-        <v>363</v>
+        <v>32.71868818815437</v>
       </c>
       <c r="C10" t="n">
-        <v>101.31640625</v>
+        <v>47.62393927574158</v>
       </c>
       <c r="D10" t="n">
-        <v>112.31640625</v>
+        <v>39.09815281839371</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -591,19 +591,19 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>378</v>
+        <v>649.6560272317176</v>
       </c>
       <c r="B11" t="n">
-        <v>490</v>
+        <v>25.32324413957048</v>
       </c>
       <c r="C11" t="n">
-        <v>139.68359375</v>
+        <v>47.61785353481736</v>
       </c>
       <c r="D11" t="n">
-        <v>76.31640625</v>
+        <v>43.263074374783</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -611,19 +611,19 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>715.609375</v>
+        <v>572.9958413187742</v>
       </c>
       <c r="B12" t="n">
-        <v>363</v>
+        <v>354.6665002106611</v>
       </c>
       <c r="C12" t="n">
-        <v>58.390625</v>
+        <v>51.04710873492513</v>
       </c>
       <c r="D12" t="n">
-        <v>101</v>
+        <v>112.5909850759371</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -631,19 +631,19 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>641</v>
+        <v>424.9150729141744</v>
       </c>
       <c r="B13" t="n">
-        <v>353</v>
+        <v>18.71889591217041</v>
       </c>
       <c r="C13" t="n">
-        <v>60</v>
+        <v>52.2837362066297</v>
       </c>
       <c r="D13" t="n">
-        <v>117</v>
+        <v>70.33741760253906</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -651,19 +651,19 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>570</v>
+        <v>1153</v>
       </c>
       <c r="B14" t="n">
-        <v>355</v>
+        <v>541.820369720459</v>
       </c>
       <c r="C14" t="n">
-        <v>54</v>
+        <v>56.775390625</v>
       </c>
       <c r="D14" t="n">
-        <v>114</v>
+        <v>66.78010559082031</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -671,19 +671,19 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1153</v>
+        <v>469.8971061706543</v>
       </c>
       <c r="B15" t="n">
-        <v>544</v>
+        <v>41.7626953125</v>
       </c>
       <c r="C15" t="n">
-        <v>56.5625</v>
+        <v>43.26233291625977</v>
       </c>
       <c r="D15" t="n">
-        <v>65</v>
+        <v>43.177978515625</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -691,19 +691,19 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>343</v>
+        <v>771.2373046875</v>
       </c>
       <c r="B16" t="n">
-        <v>57</v>
+        <v>18.703369140625</v>
       </c>
       <c r="C16" t="n">
-        <v>44</v>
+        <v>42.4873046875</v>
       </c>
       <c r="D16" t="n">
-        <v>46</v>
+        <v>48.059326171875</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -711,19 +711,19 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>433</v>
+        <v>700.474609375</v>
       </c>
       <c r="B17" t="n">
-        <v>42</v>
+        <v>582.7626953125</v>
       </c>
       <c r="C17" t="n">
-        <v>44</v>
+        <v>132.2880859375</v>
       </c>
       <c r="D17" t="n">
-        <v>47</v>
+        <v>81.0791015625</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -731,16 +731,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>397</v>
+        <v>375.736328125</v>
       </c>
       <c r="B18" t="n">
-        <v>565</v>
+        <v>489</v>
       </c>
       <c r="C18" t="n">
-        <v>166</v>
+        <v>142.017578125</v>
       </c>
       <c r="D18" t="n">
-        <v>76</v>
+        <v>73.275390625</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -751,21 +751,41 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>391</v>
+        <v>642</v>
       </c>
       <c r="B19" t="n">
-        <v>49</v>
+        <v>353</v>
       </c>
       <c r="C19" t="n">
-        <v>42</v>
+        <v>60.9208984375</v>
       </c>
       <c r="D19" t="n">
-        <v>47</v>
+        <v>117.474609375</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
       <c r="F19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>715</v>
+      </c>
+      <c r="B20" t="n">
+        <v>362.4873046875</v>
+      </c>
+      <c r="C20" t="n">
+        <v>59</v>
+      </c>
+      <c r="D20" t="n">
+        <v>101.8291015625</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -781,34 +801,34 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.56391" defaultRowHeight="15.8"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>26</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>127.8557958602905</v>
+        <v>233.4596290078603</v>
       </c>
       <c r="B2" t="n">
-        <v>822.1809911727905</v>
+        <v>849.3388671875</v>
       </c>
       <c r="C2" t="n">
-        <v>84.61881351470947</v>
+        <v>99.93263160731422</v>
       </c>
       <c r="D2" t="n">
-        <v>67.05631351470947</v>
+        <v>74.50357432036034</v>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -816,19 +836,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>868.8190088272095</v>
+        <v>1527.479793448229</v>
       </c>
       <c r="B3" t="n">
-        <v>859.9436864852905</v>
+        <v>787.2197120064372</v>
       </c>
       <c r="C3" t="n">
-        <v>140.9436864852905</v>
+        <v>111.5202065517713</v>
       </c>
       <c r="D3" t="n">
-        <v>80.41829586029053</v>
+        <v>85.486673053917</v>
       </c>
       <c r="E3" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -836,19 +856,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1026.124677658081</v>
+        <v>383.9391356151746</v>
       </c>
       <c r="B4" t="n">
-        <v>847.5126953125</v>
+        <v>731.9990138242906</v>
       </c>
       <c r="C4" t="n">
-        <v>155.8753223419189</v>
+        <v>85.779296875</v>
       </c>
       <c r="D4" t="n">
-        <v>89.4873046875</v>
+        <v>131.7451123808953</v>
       </c>
       <c r="E4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -856,19 +876,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>53.2373046875</v>
+        <v>136.0276660664302</v>
       </c>
       <c r="B5" t="n">
-        <v>807.2373046875</v>
+        <v>824.8697900644651</v>
       </c>
       <c r="C5" t="n">
-        <v>67.2373046875</v>
+        <v>87.78189943946509</v>
       </c>
       <c r="D5" t="n">
-        <v>66</v>
+        <v>71.03319831839525</v>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -876,19 +896,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1200.525390625</v>
+        <v>50.84098819294013</v>
       </c>
       <c r="B6" t="n">
-        <v>832.578125</v>
+        <v>808.0253671603277</v>
       </c>
       <c r="C6" t="n">
-        <v>145.1865234375</v>
+        <v>68.9723945108708</v>
       </c>
       <c r="D6" t="n">
-        <v>88.84375</v>
+        <v>64.31564449728467</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -896,19 +916,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>239.6220703125</v>
+        <v>1028.831098606636</v>
       </c>
       <c r="B7" t="n">
-        <v>463.7626953125</v>
+        <v>847.8381868664092</v>
       </c>
       <c r="C7" t="n">
-        <v>57.3779296875</v>
+        <v>155.9661165539092</v>
       </c>
       <c r="D7" t="n">
-        <v>96.2373046875</v>
+        <v>91.88926435781832</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -916,19 +936,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1758.3251953125</v>
+        <v>1652.831704126965</v>
       </c>
       <c r="B8" t="n">
-        <v>754</v>
+        <v>763.2373046875</v>
       </c>
       <c r="C8" t="n">
-        <v>85.912109375</v>
+        <v>101.8183641816047</v>
       </c>
       <c r="D8" t="n">
-        <v>61.474609375</v>
+        <v>77.68879887893017</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -936,19 +956,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>446.7626953125</v>
+        <v>1758.056300464455</v>
       </c>
       <c r="B9" t="n">
-        <v>532.7626953125</v>
+        <v>753.8189957769546</v>
       </c>
       <c r="C9" t="n">
-        <v>56.37078857421875</v>
+        <v>86.88739907109084</v>
       </c>
       <c r="D9" t="n">
-        <v>109</v>
+        <v>66.21416342890916</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -956,19 +976,19 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1652</v>
+        <v>87.30570798163626</v>
       </c>
       <c r="B10" t="n">
-        <v>764.2373046875</v>
+        <v>485.474609375</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>28.29360515195458</v>
       </c>
       <c r="D10" t="n">
-        <v>74.9912109375</v>
+        <v>87.41987795586374</v>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -976,19 +996,19 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>86</v>
+        <v>190.7432079816363</v>
       </c>
       <c r="B11" t="n">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="C11" t="n">
-        <v>29.4873046875</v>
+        <v>36.2744140625</v>
       </c>
       <c r="D11" t="n">
-        <v>84.2373046875</v>
+        <v>88.20049155390916</v>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -996,19 +1016,19 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>457</v>
+        <v>240.0859666121255</v>
       </c>
       <c r="B12" t="n">
-        <v>448.474609375</v>
+        <v>463.8593895560628</v>
       </c>
       <c r="C12" t="n">
-        <v>50.140625</v>
+        <v>54.71739939645749</v>
       </c>
       <c r="D12" t="n">
-        <v>81.7626953125</v>
+        <v>98.75196768106275</v>
       </c>
       <c r="E12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1016,19 +1036,19 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>313</v>
+        <v>136.6621972132726</v>
       </c>
       <c r="B13" t="n">
-        <v>453.2373046875</v>
+        <v>481.5485318835908</v>
       </c>
       <c r="C13" t="n">
-        <v>55.6748046875</v>
+        <v>34.2815023222729</v>
       </c>
       <c r="D13" t="n">
-        <v>97.947265625</v>
+        <v>89.1015625</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1036,19 +1056,19 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>18</v>
+        <v>19.12113766913626</v>
       </c>
       <c r="B14" t="n">
-        <v>498</v>
+        <v>495.5309098394546</v>
       </c>
       <c r="C14" t="n">
-        <v>27</v>
+        <v>26.984375</v>
       </c>
       <c r="D14" t="n">
-        <v>77</v>
+        <v>80.8134765625</v>
       </c>
       <c r="E14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1056,19 +1076,19 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>188.421875</v>
+        <v>446.9159267759808</v>
       </c>
       <c r="B15" t="n">
-        <v>478</v>
+        <v>492.1521633482464</v>
       </c>
       <c r="C15" t="n">
-        <v>38.578125</v>
+        <v>59.32481113905827</v>
       </c>
       <c r="D15" t="n">
-        <v>88</v>
+        <v>124.6276218080036</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1076,19 +1096,19 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>50</v>
+        <v>51.54297355660265</v>
       </c>
       <c r="B16" t="n">
-        <v>491</v>
+        <v>492.6184911855343</v>
       </c>
       <c r="C16" t="n">
-        <v>28</v>
+        <v>27.41829587303422</v>
       </c>
       <c r="D16" t="n">
-        <v>81</v>
+        <v>80.72590825393158</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1096,19 +1116,19 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>234.5625</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>844</v>
+        <v>501.7184228769657</v>
       </c>
       <c r="C17" t="n">
-        <v>103.875</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>81</v>
+        <v>76.28157712303422</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1116,19 +1136,19 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>865.9580078125</v>
       </c>
       <c r="B18" t="n">
-        <v>505</v>
+        <v>862.0944838471573</v>
       </c>
       <c r="C18" t="n">
-        <v>15</v>
+        <v>143.6252370142126</v>
       </c>
       <c r="D18" t="n">
-        <v>72.25</v>
+        <v>82.09448384715748</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1136,19 +1156,19 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>557</v>
+        <v>688.6777530713007</v>
       </c>
       <c r="B19" t="n">
-        <v>814</v>
+        <v>868.9570499463007</v>
       </c>
       <c r="C19" t="n">
-        <v>122</v>
+        <v>149.4307014551013</v>
       </c>
       <c r="D19" t="n">
-        <v>123</v>
+        <v>78.33103599119931</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1156,19 +1176,19 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131</v>
+        <v>547.322265625</v>
       </c>
       <c r="B20" t="n">
-        <v>485</v>
+        <v>812.6591796875</v>
       </c>
       <c r="C20" t="n">
-        <v>38</v>
+        <v>125.185546875</v>
       </c>
       <c r="D20" t="n">
-        <v>82</v>
+        <v>120.52734375</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1176,19 +1196,19 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>690</v>
+        <v>313.404296875</v>
       </c>
       <c r="B21" t="n">
-        <v>869</v>
+        <v>460.8642578125</v>
       </c>
       <c r="C21" t="n">
-        <v>146</v>
+        <v>53.0576171875</v>
       </c>
       <c r="D21" t="n">
-        <v>76</v>
+        <v>93.94921875</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1196,19 +1216,19 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>396</v>
+        <v>1208.310546875</v>
       </c>
       <c r="B22" t="n">
-        <v>741</v>
+        <v>833.7626953125</v>
       </c>
       <c r="C22" t="n">
-        <v>68</v>
+        <v>150.1298828125</v>
       </c>
       <c r="D22" t="n">
-        <v>131</v>
+        <v>85.423828125</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1216,41 +1236,21 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1526</v>
+        <v>1386.1181640625</v>
       </c>
       <c r="B23" t="n">
-        <v>786</v>
+        <v>814.525390625</v>
       </c>
       <c r="C23" t="n">
-        <v>114</v>
+        <v>133.4072265625</v>
       </c>
       <c r="D23" t="n">
-        <v>85</v>
+        <v>83.037109375</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>1365</v>
-      </c>
-      <c r="B24" t="n">
-        <v>814</v>
-      </c>
-      <c r="C24" t="n">
-        <v>152</v>
-      </c>
-      <c r="D24" t="n">
-        <v>85</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="n">
         <v>0</v>
       </c>
     </row>

--- a/RunningYOLO/dataBase.xlsx
+++ b/RunningYOLO/dataBase.xlsx
@@ -801,7 +801,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A25" sqref="A25:XFD25"/>
@@ -811,24 +811,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>186</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>233.4596290078603</v>
+        <v>128</v>
       </c>
       <c r="B2" t="n">
-        <v>849.3388671875</v>
+        <v>823.75</v>
       </c>
       <c r="C2" t="n">
-        <v>99.93263160731422</v>
+        <v>109.75</v>
       </c>
       <c r="D2" t="n">
-        <v>74.50357432036034</v>
+        <v>77.5</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -836,19 +836,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1527.479793448229</v>
+        <v>251.75</v>
       </c>
       <c r="B3" t="n">
-        <v>787.2197120064372</v>
+        <v>845.5</v>
       </c>
       <c r="C3" t="n">
-        <v>111.5202065517713</v>
+        <v>114.25</v>
       </c>
       <c r="D3" t="n">
-        <v>85.486673053917</v>
+        <v>72</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -856,19 +856,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>383.9391356151746</v>
+        <v>397.5</v>
       </c>
       <c r="B4" t="n">
-        <v>731.9990138242906</v>
+        <v>731.75</v>
       </c>
       <c r="C4" t="n">
-        <v>85.779296875</v>
+        <v>71</v>
       </c>
       <c r="D4" t="n">
-        <v>131.7451123808953</v>
+        <v>126</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -876,19 +876,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>136.0276660664302</v>
+        <v>1403</v>
       </c>
       <c r="B5" t="n">
-        <v>824.8697900644651</v>
+        <v>807.75</v>
       </c>
       <c r="C5" t="n">
-        <v>87.78189943946509</v>
+        <v>112.5</v>
       </c>
       <c r="D5" t="n">
-        <v>71.03319831839525</v>
+        <v>79.75</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -896,19 +896,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>50.84098819294013</v>
+        <v>1061.5</v>
       </c>
       <c r="B6" t="n">
-        <v>808.0253671603277</v>
+        <v>850.25</v>
       </c>
       <c r="C6" t="n">
-        <v>68.9723945108708</v>
+        <v>140.75</v>
       </c>
       <c r="D6" t="n">
-        <v>64.31564449728467</v>
+        <v>76.25</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -916,19 +916,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1028.831098606636</v>
+        <v>856</v>
       </c>
       <c r="B7" t="n">
-        <v>847.8381868664092</v>
+        <v>866.25</v>
       </c>
       <c r="C7" t="n">
-        <v>155.9661165539092</v>
+        <v>158.75</v>
       </c>
       <c r="D7" t="n">
-        <v>91.88926435781832</v>
+        <v>75.75</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -936,19 +936,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1652.831704126965</v>
+        <v>1223</v>
       </c>
       <c r="B8" t="n">
-        <v>763.2373046875</v>
+        <v>830</v>
       </c>
       <c r="C8" t="n">
-        <v>101.8183641816047</v>
+        <v>129.25</v>
       </c>
       <c r="D8" t="n">
-        <v>77.68879887893017</v>
+        <v>83.5</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -956,19 +956,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1758.056300464455</v>
+        <v>55</v>
       </c>
       <c r="B9" t="n">
-        <v>753.8189957769546</v>
+        <v>807.5</v>
       </c>
       <c r="C9" t="n">
-        <v>86.88739907109084</v>
+        <v>68.75</v>
       </c>
       <c r="D9" t="n">
-        <v>66.21416342890916</v>
+        <v>62</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -976,19 +976,19 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>87.30570798163626</v>
+        <v>689.875</v>
       </c>
       <c r="B10" t="n">
-        <v>485.474609375</v>
+        <v>865.75</v>
       </c>
       <c r="C10" t="n">
-        <v>28.29360515195458</v>
+        <v>123.875</v>
       </c>
       <c r="D10" t="n">
-        <v>87.41987795586374</v>
+        <v>73.125</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -996,19 +996,19 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>190.7432079816363</v>
+        <v>450.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>478</v>
+        <v>498.3125</v>
       </c>
       <c r="C11" t="n">
-        <v>36.2744140625</v>
+        <v>51.125</v>
       </c>
       <c r="D11" t="n">
-        <v>88.20049155390916</v>
+        <v>127.4375</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1016,19 +1016,19 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>240.0859666121255</v>
+        <v>192</v>
       </c>
       <c r="B12" t="n">
-        <v>463.8593895560628</v>
+        <v>479.75</v>
       </c>
       <c r="C12" t="n">
-        <v>54.71739939645749</v>
+        <v>31.75</v>
       </c>
       <c r="D12" t="n">
-        <v>98.75196768106275</v>
+        <v>79.5</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1036,19 +1036,19 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>136.6621972132726</v>
+        <v>18.75</v>
       </c>
       <c r="B13" t="n">
-        <v>481.5485318835908</v>
+        <v>496.75</v>
       </c>
       <c r="C13" t="n">
-        <v>34.2815023222729</v>
+        <v>26</v>
       </c>
       <c r="D13" t="n">
-        <v>89.1015625</v>
+        <v>76.25</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1056,19 +1056,19 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>19.12113766913626</v>
+        <v>52.25</v>
       </c>
       <c r="B14" t="n">
-        <v>495.5309098394546</v>
+        <v>495.25</v>
       </c>
       <c r="C14" t="n">
-        <v>26.984375</v>
+        <v>27</v>
       </c>
       <c r="D14" t="n">
-        <v>80.8134765625</v>
+        <v>72.5</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1076,19 +1076,19 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>446.9159267759808</v>
+        <v>450.375</v>
       </c>
       <c r="B15" t="n">
-        <v>492.1521633482464</v>
+        <v>489.875</v>
       </c>
       <c r="C15" t="n">
-        <v>59.32481113905827</v>
+        <v>51.625</v>
       </c>
       <c r="D15" t="n">
-        <v>124.6276218080036</v>
+        <v>136</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>51.54297355660265</v>
+        <v>133.25</v>
       </c>
       <c r="B16" t="n">
-        <v>492.6184911855343</v>
+        <v>478.75</v>
       </c>
       <c r="C16" t="n">
-        <v>27.41829587303422</v>
+        <v>39.5</v>
       </c>
       <c r="D16" t="n">
-        <v>80.72590825393158</v>
+        <v>86.25</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1116,19 +1116,19 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0</v>
+        <v>1523.5</v>
       </c>
       <c r="B17" t="n">
-        <v>501.7184228769657</v>
+        <v>789</v>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="D17" t="n">
-        <v>76.28157712303422</v>
+        <v>79.5</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>865.9580078125</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>862.0944838471573</v>
+        <v>495.5</v>
       </c>
       <c r="C18" t="n">
-        <v>143.6252370142126</v>
+        <v>15</v>
       </c>
       <c r="D18" t="n">
-        <v>82.09448384715748</v>
+        <v>78.5</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1156,19 +1156,19 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>688.6777530713007</v>
+        <v>85</v>
       </c>
       <c r="B19" t="n">
-        <v>868.9570499463007</v>
+        <v>488.5</v>
       </c>
       <c r="C19" t="n">
-        <v>149.4307014551013</v>
+        <v>29.5</v>
       </c>
       <c r="D19" t="n">
-        <v>78.33103599119931</v>
+        <v>79.5</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1176,19 +1176,19 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>547.322265625</v>
+        <v>326.25</v>
       </c>
       <c r="B20" t="n">
-        <v>812.6591796875</v>
+        <v>462.25</v>
       </c>
       <c r="C20" t="n">
-        <v>125.185546875</v>
+        <v>47.75</v>
       </c>
       <c r="D20" t="n">
-        <v>120.52734375</v>
+        <v>93</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1196,19 +1196,19 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>313.404296875</v>
+        <v>1651</v>
       </c>
       <c r="B21" t="n">
-        <v>460.8642578125</v>
+        <v>769.75</v>
       </c>
       <c r="C21" t="n">
-        <v>53.0576171875</v>
+        <v>95.75</v>
       </c>
       <c r="D21" t="n">
-        <v>93.94921875</v>
+        <v>66</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1216,41 +1216,21 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1208.310546875</v>
+        <v>1766.5</v>
       </c>
       <c r="B22" t="n">
-        <v>833.7626953125</v>
+        <v>753</v>
       </c>
       <c r="C22" t="n">
-        <v>150.1298828125</v>
+        <v>82.5</v>
       </c>
       <c r="D22" t="n">
-        <v>85.423828125</v>
+        <v>56</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>1386.1181640625</v>
-      </c>
-      <c r="B23" t="n">
-        <v>814.525390625</v>
-      </c>
-      <c r="C23" t="n">
-        <v>133.4072265625</v>
-      </c>
-      <c r="D23" t="n">
-        <v>83.037109375</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
         <v>0</v>
       </c>
     </row>

--- a/RunningYOLO/dataBase.xlsx
+++ b/RunningYOLO/dataBase.xlsx
@@ -396,7 +396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
@@ -406,24 +406,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>120</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>574.0657381014898</v>
+        <v>402.0938878562301</v>
       </c>
       <c r="B2" t="n">
-        <v>544.7149777151644</v>
+        <v>503.1386673180386</v>
       </c>
       <c r="C2" t="n">
-        <v>136.9342618985102</v>
+        <v>131.2845915043727</v>
       </c>
       <c r="D2" t="n">
-        <v>139.5394811051483</v>
+        <v>67.13482069037855</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>29.5</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -431,39 +431,39 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>427.2239412264898</v>
+        <v>406.7960318699479</v>
       </c>
       <c r="B3" t="n">
-        <v>373.5824190573767</v>
+        <v>368.0866810530424</v>
       </c>
       <c r="C3" t="n">
-        <v>111.0563135147095</v>
+        <v>111.0925447046757</v>
       </c>
       <c r="D3" t="n">
-        <v>112.2267353490396</v>
+        <v>104.5060890614986</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>344.0459197117016</v>
+        <v>712.2643702961504</v>
       </c>
       <c r="B4" t="n">
-        <v>53.98980775092878</v>
+        <v>583.2971863076091</v>
       </c>
       <c r="C4" t="n">
-        <v>43.1811927267272</v>
+        <v>129.377631187439</v>
       </c>
       <c r="D4" t="n">
-        <v>48.24749693657121</v>
+        <v>79.74414410814643</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>27.5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -471,219 +471,219 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>699.9866365389898</v>
+        <v>503.3422945358325</v>
       </c>
       <c r="B5" t="n">
-        <v>21.01127370167524</v>
+        <v>15.13445986574516</v>
       </c>
       <c r="C5" t="n">
-        <v>54.61252751563825</v>
+        <v>67.14996699197218</v>
       </c>
       <c r="D5" t="n">
-        <v>47.034847563963</v>
+        <v>62.62602290976793</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>32.5</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>503.0429500536993</v>
+        <v>720.204949896317</v>
       </c>
       <c r="B6" t="n">
-        <v>14.25</v>
+        <v>355.3586317328736</v>
       </c>
       <c r="C6" t="n">
-        <v>65.939005793869</v>
+        <v>53.02322956128046</v>
       </c>
       <c r="D6" t="n">
-        <v>63.56900882720947</v>
+        <v>112.5014558858238</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>390.979413947921</v>
+        <v>407.3019384106155</v>
       </c>
       <c r="B7" t="n">
-        <v>53.92631524611623</v>
+        <v>570.2508016270585</v>
       </c>
       <c r="C7" t="n">
-        <v>41.02375726401806</v>
+        <v>142.2380564832129</v>
       </c>
       <c r="D7" t="n">
-        <v>43.30079719231253</v>
+        <v>76.25271685770713</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>32.5</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>397.6851957901666</v>
+        <v>649.1503607681952</v>
       </c>
       <c r="B8" t="n">
-        <v>564.9950983776455</v>
+        <v>352.3612338043749</v>
       </c>
       <c r="C8" t="n">
-        <v>167.2837266478998</v>
+        <v>53.37879841215909</v>
       </c>
       <c r="D8" t="n">
-        <v>76.51435271164701</v>
+        <v>119.9846409023739</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>560.9866365389898</v>
+        <v>571.7984482091852</v>
       </c>
       <c r="B9" t="n">
-        <v>29.23413347556107</v>
+        <v>360.4176237541251</v>
       </c>
       <c r="C9" t="n">
-        <v>51.13541507720947</v>
+        <v>56.84915428748354</v>
       </c>
       <c r="D9" t="n">
-        <v>45.81198779007718</v>
+        <v>111.5943341325037</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>31.5</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>605.2239412264898</v>
+        <v>567.1728515625</v>
       </c>
       <c r="B10" t="n">
-        <v>32.71868818815437</v>
+        <v>24.716796875</v>
       </c>
       <c r="C10" t="n">
-        <v>47.62393927574158</v>
+        <v>51.2685546875</v>
       </c>
       <c r="D10" t="n">
-        <v>39.09815281839371</v>
+        <v>48.77734375</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>649.6560272317176</v>
+        <v>409.8901716689579</v>
       </c>
       <c r="B11" t="n">
-        <v>25.32324413957048</v>
+        <v>19.11059977905825</v>
       </c>
       <c r="C11" t="n">
-        <v>47.61785353481736</v>
+        <v>69.12087293807417</v>
       </c>
       <c r="D11" t="n">
-        <v>43.263074374783</v>
+        <v>68.9425098693464</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>32.5</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>572.9958413187742</v>
+        <v>378.7384715825319</v>
       </c>
       <c r="B12" t="n">
-        <v>354.6665002106611</v>
+        <v>46.27682754397392</v>
       </c>
       <c r="C12" t="n">
-        <v>51.04710873492513</v>
+        <v>45.43010088801384</v>
       </c>
       <c r="D12" t="n">
-        <v>112.5909850759371</v>
+        <v>47.74448674917221</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>424.9150729141744</v>
+        <v>1153.128231532872</v>
       </c>
       <c r="B13" t="n">
-        <v>18.71889591217041</v>
+        <v>540.1477833762765</v>
       </c>
       <c r="C13" t="n">
-        <v>52.2837362066297</v>
+        <v>74.27141867205501</v>
       </c>
       <c r="D13" t="n">
-        <v>70.33741760253906</v>
+        <v>64.4721601838246</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1153</v>
+        <v>613.9501953125</v>
       </c>
       <c r="B14" t="n">
-        <v>541.820369720459</v>
+        <v>26.1767578125</v>
       </c>
       <c r="C14" t="n">
-        <v>56.775390625</v>
+        <v>53.44970703125</v>
       </c>
       <c r="D14" t="n">
-        <v>66.78010559082031</v>
+        <v>45.19677734375</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>469.8971061706543</v>
+        <v>659.8125</v>
       </c>
       <c r="B15" t="n">
-        <v>41.7626953125</v>
+        <v>23.91015625</v>
       </c>
       <c r="C15" t="n">
-        <v>43.26233291625977</v>
+        <v>46.0078125</v>
       </c>
       <c r="D15" t="n">
-        <v>43.177978515625</v>
+        <v>42.19140625</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -691,101 +691,161 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>771.2373046875</v>
+        <v>696.5696500241756</v>
       </c>
       <c r="B16" t="n">
-        <v>18.703369140625</v>
+        <v>22.91747459769249</v>
       </c>
       <c r="C16" t="n">
-        <v>42.4873046875</v>
+        <v>50.00608071684837</v>
       </c>
       <c r="D16" t="n">
-        <v>48.059326171875</v>
+        <v>42.69496527314186</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>700.474609375</v>
+        <v>339.1393728256226</v>
       </c>
       <c r="B17" t="n">
-        <v>582.7626953125</v>
+        <v>61.26700496673584</v>
       </c>
       <c r="C17" t="n">
-        <v>132.2880859375</v>
+        <v>45.68721961975098</v>
       </c>
       <c r="D17" t="n">
-        <v>81.0791015625</v>
+        <v>40.89814186096191</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>15.5</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>375.736328125</v>
+        <v>475.2666015625</v>
       </c>
       <c r="B18" t="n">
-        <v>489</v>
+        <v>34.68310546875</v>
       </c>
       <c r="C18" t="n">
-        <v>142.017578125</v>
+        <v>47.76611328125</v>
       </c>
       <c r="D18" t="n">
-        <v>73.275390625</v>
+        <v>47.888671875</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>642</v>
+        <v>573</v>
       </c>
       <c r="B19" t="n">
-        <v>353</v>
+        <v>548</v>
       </c>
       <c r="C19" t="n">
-        <v>60.9208984375</v>
+        <v>142</v>
       </c>
       <c r="D19" t="n">
-        <v>117.474609375</v>
+        <v>132</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>715</v>
+        <v>602</v>
       </c>
       <c r="B20" t="n">
-        <v>362.4873046875</v>
+        <v>866</v>
       </c>
       <c r="C20" t="n">
-        <v>59</v>
+        <v>224</v>
       </c>
       <c r="D20" t="n">
-        <v>101.8291015625</v>
+        <v>104</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1715</v>
+      </c>
+      <c r="B21" t="n">
+        <v>805</v>
+      </c>
+      <c r="C21" t="n">
+        <v>106</v>
+      </c>
+      <c r="D21" t="n">
+        <v>97</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>731</v>
+      </c>
+      <c r="B22" t="n">
+        <v>25</v>
+      </c>
+      <c r="C22" t="n">
+        <v>109</v>
+      </c>
+      <c r="D22" t="n">
+        <v>83</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>618</v>
+      </c>
+      <c r="B23" t="n">
+        <v>68</v>
+      </c>
+      <c r="C23" t="n">
+        <v>69</v>
+      </c>
+      <c r="D23" t="n">
+        <v>49</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -801,7 +861,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A25" sqref="A25:XFD25"/>
@@ -811,24 +871,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>128</v>
+        <v>409.776611328125</v>
       </c>
       <c r="B2" t="n">
-        <v>823.75</v>
+        <v>705.09228515625</v>
       </c>
       <c r="C2" t="n">
-        <v>109.75</v>
+        <v>57.154052734375</v>
       </c>
       <c r="D2" t="n">
-        <v>77.5</v>
+        <v>121.12744140625</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -836,19 +896,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251.75</v>
+        <v>257.52734375</v>
       </c>
       <c r="B3" t="n">
-        <v>845.5</v>
+        <v>839.0556640625</v>
       </c>
       <c r="C3" t="n">
-        <v>114.25</v>
+        <v>108.1357421875</v>
       </c>
       <c r="D3" t="n">
-        <v>72</v>
+        <v>80.1630859375</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -856,19 +916,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>397.5</v>
+        <v>1369.40625</v>
       </c>
       <c r="B4" t="n">
-        <v>731.75</v>
+        <v>812.038818359375</v>
       </c>
       <c r="C4" t="n">
-        <v>71</v>
+        <v>128.3359375</v>
       </c>
       <c r="D4" t="n">
-        <v>126</v>
+        <v>78.209228515625</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -876,39 +936,39 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1403</v>
+        <v>457.87353515625</v>
       </c>
       <c r="B5" t="n">
-        <v>807.75</v>
+        <v>520.9365234375</v>
       </c>
       <c r="C5" t="n">
-        <v>112.5</v>
+        <v>49.90966796875</v>
       </c>
       <c r="D5" t="n">
-        <v>79.75</v>
+        <v>103.845703125</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>14.5</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1061.5</v>
+        <v>727.327880859375</v>
       </c>
       <c r="B6" t="n">
-        <v>850.25</v>
+        <v>868.2576904296875</v>
       </c>
       <c r="C6" t="n">
-        <v>140.75</v>
+        <v>145.890625</v>
       </c>
       <c r="D6" t="n">
-        <v>76.25</v>
+        <v>71.99131774902344</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -916,19 +976,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>856</v>
+        <v>190.96875</v>
       </c>
       <c r="B7" t="n">
-        <v>866.25</v>
+        <v>479.0009765625</v>
       </c>
       <c r="C7" t="n">
-        <v>158.75</v>
+        <v>35.9384765625</v>
       </c>
       <c r="D7" t="n">
-        <v>75.75</v>
+        <v>82.944091796875</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -936,19 +996,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1223</v>
+        <v>893.1796264648438</v>
       </c>
       <c r="B8" t="n">
-        <v>830</v>
+        <v>858.656982421875</v>
       </c>
       <c r="C8" t="n">
-        <v>129.25</v>
+        <v>163.6797485351562</v>
       </c>
       <c r="D8" t="n">
-        <v>83.5</v>
+        <v>74.78857421875</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -956,19 +1016,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>55</v>
+        <v>1519.00732421875</v>
       </c>
       <c r="B9" t="n">
-        <v>807.5</v>
+        <v>786.68798828125</v>
       </c>
       <c r="C9" t="n">
-        <v>68.75</v>
+        <v>119.30517578125</v>
       </c>
       <c r="D9" t="n">
-        <v>62</v>
+        <v>78.08203125</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -976,19 +1036,19 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>689.875</v>
+        <v>82.75</v>
       </c>
       <c r="B10" t="n">
-        <v>865.75</v>
+        <v>489</v>
       </c>
       <c r="C10" t="n">
-        <v>123.875</v>
+        <v>32.5068359375</v>
       </c>
       <c r="D10" t="n">
-        <v>73.125</v>
+        <v>78.494140625</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -996,19 +1056,19 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>450.1875</v>
+        <v>1648.60888671875</v>
       </c>
       <c r="B11" t="n">
-        <v>498.3125</v>
+        <v>765.9011840820312</v>
       </c>
       <c r="C11" t="n">
-        <v>51.125</v>
+        <v>98.375732421875</v>
       </c>
       <c r="D11" t="n">
-        <v>127.4375</v>
+        <v>64.39617919921875</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1016,19 +1076,19 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>192</v>
+        <v>1766.7294921875</v>
       </c>
       <c r="B12" t="n">
-        <v>479.75</v>
+        <v>742.046875</v>
       </c>
       <c r="C12" t="n">
-        <v>31.75</v>
+        <v>77.80224609375</v>
       </c>
       <c r="D12" t="n">
-        <v>79.5</v>
+        <v>65.7333984375</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>15.5</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1036,19 +1096,19 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>18.75</v>
+        <v>234.9375</v>
       </c>
       <c r="B13" t="n">
-        <v>496.75</v>
+        <v>164.5615234375</v>
       </c>
       <c r="C13" t="n">
-        <v>26</v>
+        <v>31.96875</v>
       </c>
       <c r="D13" t="n">
-        <v>76.25</v>
+        <v>64.5009765625</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1056,19 +1116,19 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>52.25</v>
+        <v>48.6630859375</v>
       </c>
       <c r="B14" t="n">
-        <v>495.25</v>
+        <v>492.3447265625</v>
       </c>
       <c r="C14" t="n">
-        <v>27</v>
+        <v>31.0556640625</v>
       </c>
       <c r="D14" t="n">
-        <v>72.5</v>
+        <v>77.812255859375</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1076,19 +1136,19 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>450.375</v>
+        <v>1076.623046875</v>
       </c>
       <c r="B15" t="n">
-        <v>489.875</v>
+        <v>848.1085205078125</v>
       </c>
       <c r="C15" t="n">
-        <v>51.625</v>
+        <v>133.3339233398438</v>
       </c>
       <c r="D15" t="n">
-        <v>136</v>
+        <v>74.8773193359375</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1096,19 +1156,19 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>133.25</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n">
-        <v>478.75</v>
+        <v>495.1591796875</v>
       </c>
       <c r="C16" t="n">
-        <v>39.5</v>
+        <v>27.53125</v>
       </c>
       <c r="D16" t="n">
-        <v>86.25</v>
+        <v>76.998046875</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1116,19 +1176,19 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1523.5</v>
+        <v>30.14111328125</v>
       </c>
       <c r="B17" t="n">
-        <v>789</v>
+        <v>277.95361328125</v>
       </c>
       <c r="C17" t="n">
-        <v>114</v>
+        <v>43.9208984375</v>
       </c>
       <c r="D17" t="n">
-        <v>79.5</v>
+        <v>38.57763671875</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1136,19 +1196,19 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>238.5556640625</v>
       </c>
       <c r="B18" t="n">
-        <v>495.5</v>
+        <v>458.0009765625</v>
       </c>
       <c r="C18" t="n">
+        <v>47.2568359375</v>
+      </c>
+      <c r="D18" t="n">
+        <v>91.158203125</v>
+      </c>
+      <c r="E18" t="n">
         <v>15</v>
-      </c>
-      <c r="D18" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="E18" t="n">
-        <v>3</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1156,39 +1216,39 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>85</v>
+        <v>431.5634765625</v>
       </c>
       <c r="B19" t="n">
-        <v>488.5</v>
+        <v>134.9364013671875</v>
       </c>
       <c r="C19" t="n">
-        <v>29.5</v>
+        <v>34.4140625</v>
       </c>
       <c r="D19" t="n">
-        <v>79.5</v>
+        <v>58.0645751953125</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>14.5</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>326.25</v>
+        <v>1588.752380371094</v>
       </c>
       <c r="B20" t="n">
-        <v>462.25</v>
+        <v>102.8916015625</v>
       </c>
       <c r="C20" t="n">
-        <v>47.75</v>
+        <v>60.55364990234375</v>
       </c>
       <c r="D20" t="n">
-        <v>93</v>
+        <v>40.45208740234375</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1196,19 +1256,19 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1651</v>
+        <v>270.28125</v>
       </c>
       <c r="B21" t="n">
-        <v>769.75</v>
+        <v>161.498046875</v>
       </c>
       <c r="C21" t="n">
-        <v>95.75</v>
+        <v>31.685546875</v>
       </c>
       <c r="D21" t="n">
-        <v>66</v>
+        <v>63.689453125</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1216,21 +1276,1001 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1766.5</v>
+        <v>1652.202056884766</v>
       </c>
       <c r="B22" t="n">
-        <v>753</v>
+        <v>113.6785583496094</v>
       </c>
       <c r="C22" t="n">
-        <v>82.5</v>
+        <v>48.93661499023438</v>
       </c>
       <c r="D22" t="n">
-        <v>56</v>
+        <v>37.10293579101562</v>
       </c>
       <c r="E22" t="n">
+        <v>17</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>591.125</v>
+      </c>
+      <c r="B23" t="n">
+        <v>90.9111328125</v>
+      </c>
+      <c r="C23" t="n">
+        <v>35.96875</v>
+      </c>
+      <c r="D23" t="n">
+        <v>46.435546875</v>
+      </c>
+      <c r="E23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1228.390625</v>
+      </c>
+      <c r="B24" t="n">
+        <v>16.1298828125</v>
+      </c>
+      <c r="C24" t="n">
+        <v>82.0185546875</v>
+      </c>
+      <c r="D24" t="n">
+        <v>48.8671875</v>
+      </c>
+      <c r="E24" t="n">
+        <v>11</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>87.0947265625</v>
+      </c>
+      <c r="B25" t="n">
+        <v>262.376953125</v>
+      </c>
+      <c r="C25" t="n">
+        <v>47.74664306640625</v>
+      </c>
+      <c r="D25" t="n">
+        <v>40.32666015625</v>
+      </c>
+      <c r="E25" t="n">
+        <v>16</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>144.726806640625</v>
+      </c>
+      <c r="B26" t="n">
+        <v>253.6388854980469</v>
+      </c>
+      <c r="C26" t="n">
+        <v>49.25048828125</v>
+      </c>
+      <c r="D26" t="n">
+        <v>39.07986450195312</v>
+      </c>
+      <c r="E26" t="n">
+        <v>17</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1679.5</v>
+      </c>
+      <c r="B27" t="n">
+        <v>72</v>
+      </c>
+      <c r="C27" t="n">
+        <v>52.6875</v>
+      </c>
+      <c r="D27" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1718.1484375</v>
+      </c>
+      <c r="B28" t="n">
+        <v>127.9384765625</v>
+      </c>
+      <c r="C28" t="n">
+        <v>47.4398193359375</v>
+      </c>
+      <c r="D28" t="n">
+        <v>35.0302734375</v>
+      </c>
+      <c r="E28" t="n">
+        <v>15</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>133.2197265625</v>
+      </c>
+      <c r="B29" t="n">
+        <v>474.68359375</v>
+      </c>
+      <c r="C29" t="n">
+        <v>44.0653076171875</v>
+      </c>
+      <c r="D29" t="n">
+        <v>94.326904296875</v>
+      </c>
+      <c r="E29" t="n">
+        <v>15</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>200.884765625</v>
+      </c>
+      <c r="B30" t="n">
+        <v>171.8875122070312</v>
+      </c>
+      <c r="C30" t="n">
+        <v>23.75982666015625</v>
+      </c>
+      <c r="D30" t="n">
+        <v>68.11175537109375</v>
+      </c>
+      <c r="E30" t="n">
+        <v>15</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1773.986328125</v>
+      </c>
+      <c r="B31" t="n">
+        <v>134.015625</v>
+      </c>
+      <c r="C31" t="n">
+        <v>38.529296875</v>
+      </c>
+      <c r="D31" t="n">
+        <v>36.015625</v>
+      </c>
+      <c r="E31" t="n">
+        <v>11</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1435.720703125</v>
+      </c>
+      <c r="B32" t="n">
+        <v>88</v>
+      </c>
+      <c r="C32" t="n">
+        <v>63.248046875</v>
+      </c>
+      <c r="D32" t="n">
+        <v>37.00390625</v>
+      </c>
+      <c r="E32" t="n">
+        <v>10</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>171.78125</v>
+      </c>
+      <c r="B33" t="n">
+        <v>193.33984375</v>
+      </c>
+      <c r="C33" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="D33" t="n">
+        <v>49.37109375</v>
+      </c>
+      <c r="E33" t="n">
+        <v>8</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>310.875</v>
+      </c>
+      <c r="B34" t="n">
+        <v>224</v>
+      </c>
+      <c r="C34" t="n">
+        <v>59</v>
+      </c>
+      <c r="D34" t="n">
+        <v>42</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1626.84375</v>
+      </c>
+      <c r="B35" t="n">
+        <v>59.03125</v>
+      </c>
+      <c r="C35" t="n">
+        <v>50.0390625</v>
+      </c>
+      <c r="D35" t="n">
+        <v>33.0078125</v>
+      </c>
+      <c r="E35" t="n">
+        <v>9</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0</v>
+      </c>
+      <c r="B36" t="n">
+        <v>498.0322265625</v>
+      </c>
+      <c r="C36" t="n">
+        <v>14.96875</v>
+      </c>
+      <c r="D36" t="n">
+        <v>75.5966796875</v>
+      </c>
+      <c r="E36" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>309.30712890625</v>
+      </c>
+      <c r="B37" t="n">
+        <v>161.56640625</v>
+      </c>
+      <c r="C37" t="n">
+        <v>32.478515625</v>
+      </c>
+      <c r="D37" t="n">
+        <v>53.607421875</v>
+      </c>
+      <c r="E37" t="n">
+        <v>14</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>633.9375</v>
+      </c>
+      <c r="B38" t="n">
+        <v>89.078125</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36.03125</v>
+      </c>
+      <c r="D38" t="n">
+        <v>37.0546875</v>
+      </c>
+      <c r="E38" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>503.5625</v>
+      </c>
+      <c r="B39" t="n">
+        <v>670.375</v>
+      </c>
+      <c r="C39" t="n">
+        <v>52.75</v>
+      </c>
+      <c r="D39" t="n">
+        <v>121.1875</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="B40" t="n">
+        <v>279</v>
+      </c>
+      <c r="C40" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="D40" t="n">
+        <v>46</v>
+      </c>
+      <c r="E40" t="n">
         <v>2</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>480</v>
+      </c>
+      <c r="B41" t="n">
+        <v>124</v>
+      </c>
+      <c r="C41" t="n">
+        <v>34</v>
+      </c>
+      <c r="D41" t="n">
+        <v>62</v>
+      </c>
+      <c r="E41" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1512.0625</v>
+      </c>
+      <c r="B42" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="C42" t="n">
+        <v>63.6875</v>
+      </c>
+      <c r="D42" t="n">
+        <v>41.25</v>
+      </c>
+      <c r="E42" t="n">
+        <v>7</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1743.59375</v>
+      </c>
+      <c r="B43" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="C43" t="n">
+        <v>38.40625</v>
+      </c>
+      <c r="D43" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="E43" t="n">
+        <v>6</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1320</v>
+      </c>
+      <c r="B44" t="n">
+        <v>30</v>
+      </c>
+      <c r="C44" t="n">
+        <v>62</v>
+      </c>
+      <c r="D44" t="n">
+        <v>36</v>
+      </c>
+      <c r="E44" t="n">
+        <v>5</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1114.75</v>
+      </c>
+      <c r="B45" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C45" t="n">
+        <v>75</v>
+      </c>
+      <c r="D45" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="E45" t="n">
+        <v>4</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1149.3125</v>
+      </c>
+      <c r="B46" t="n">
+        <v>908.8125</v>
+      </c>
+      <c r="C46" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="D46" t="n">
+        <v>106.3125</v>
+      </c>
+      <c r="E46" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>929.5</v>
+      </c>
+      <c r="B47" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C47" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="D47" t="n">
+        <v>43</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>593</v>
+      </c>
+      <c r="B48" t="n">
+        <v>850.5</v>
+      </c>
+      <c r="C48" t="n">
+        <v>122.5</v>
+      </c>
+      <c r="D48" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B49" t="n">
+        <v>16</v>
+      </c>
+      <c r="C49" t="n">
+        <v>85</v>
+      </c>
+      <c r="D49" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>780.5</v>
+      </c>
+      <c r="B50" t="n">
+        <v>25</v>
+      </c>
+      <c r="C50" t="n">
+        <v>82</v>
+      </c>
+      <c r="D50" t="n">
+        <v>43</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>687</v>
+      </c>
+      <c r="B51" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="C51" t="n">
+        <v>74</v>
+      </c>
+      <c r="D51" t="n">
+        <v>39</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>292.5</v>
+      </c>
+      <c r="B52" t="n">
+        <v>462</v>
+      </c>
+      <c r="C52" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="D52" t="n">
+        <v>84</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>488.5</v>
+      </c>
+      <c r="B53" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="C53" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="D53" t="n">
+        <v>35</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>556</v>
+      </c>
+      <c r="B54" t="n">
+        <v>121</v>
+      </c>
+      <c r="C54" t="n">
+        <v>45</v>
+      </c>
+      <c r="D54" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>120</v>
+      </c>
+      <c r="B55" t="n">
+        <v>822</v>
+      </c>
+      <c r="C55" t="n">
+        <v>86</v>
+      </c>
+      <c r="D55" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>418.5</v>
+      </c>
+      <c r="B56" t="n">
+        <v>66</v>
+      </c>
+      <c r="C56" t="n">
+        <v>63</v>
+      </c>
+      <c r="D56" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1532.5</v>
+      </c>
+      <c r="B57" t="n">
+        <v>42</v>
+      </c>
+      <c r="C57" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="D57" t="n">
+        <v>37</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1455.5</v>
+      </c>
+      <c r="B58" t="n">
+        <v>33</v>
+      </c>
+      <c r="C58" t="n">
+        <v>66</v>
+      </c>
+      <c r="D58" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>444</v>
+      </c>
+      <c r="B59" t="n">
+        <v>442</v>
+      </c>
+      <c r="C59" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="D59" t="n">
+        <v>76</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>362</v>
+      </c>
+      <c r="B60" t="n">
+        <v>151</v>
+      </c>
+      <c r="C60" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="D60" t="n">
+        <v>53</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1785</v>
+      </c>
+      <c r="B61" t="n">
+        <v>82</v>
+      </c>
+      <c r="C61" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="D61" t="n">
+        <v>32</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>127.5</v>
+      </c>
+      <c r="B62" t="n">
+        <v>197</v>
+      </c>
+      <c r="C62" t="n">
+        <v>37</v>
+      </c>
+      <c r="D62" t="n">
+        <v>53</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1393.5</v>
+      </c>
+      <c r="B63" t="n">
+        <v>26</v>
+      </c>
+      <c r="C63" t="n">
+        <v>59</v>
+      </c>
+      <c r="D63" t="n">
+        <v>37</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>586.5</v>
+      </c>
+      <c r="B64" t="n">
+        <v>58</v>
+      </c>
+      <c r="C64" t="n">
+        <v>73</v>
+      </c>
+      <c r="D64" t="n">
+        <v>39</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>99</v>
+      </c>
+      <c r="B65" t="n">
+        <v>216</v>
+      </c>
+      <c r="C65" t="n">
+        <v>31</v>
+      </c>
+      <c r="D65" t="n">
+        <v>41</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1824</v>
+      </c>
+      <c r="B66" t="n">
+        <v>140</v>
+      </c>
+      <c r="C66" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="D66" t="n">
+        <v>34</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1834.5</v>
+      </c>
+      <c r="B67" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="C67" t="n">
+        <v>36</v>
+      </c>
+      <c r="D67" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>32</v>
+      </c>
+      <c r="B68" t="n">
+        <v>205</v>
+      </c>
+      <c r="C68" t="n">
+        <v>40</v>
+      </c>
+      <c r="D68" t="n">
+        <v>34</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>501</v>
+      </c>
+      <c r="B69" t="n">
+        <v>234</v>
+      </c>
+      <c r="C69" t="n">
+        <v>65</v>
+      </c>
+      <c r="D69" t="n">
+        <v>46</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>50</v>
+      </c>
+      <c r="B70" t="n">
+        <v>808</v>
+      </c>
+      <c r="C70" t="n">
+        <v>63</v>
+      </c>
+      <c r="D70" t="n">
+        <v>57</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>106</v>
+      </c>
+      <c r="B71" t="n">
+        <v>436</v>
+      </c>
+      <c r="C71" t="n">
+        <v>65</v>
+      </c>
+      <c r="D71" t="n">
+        <v>32</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" t="n">
         <v>0</v>
       </c>
     </row>

--- a/RunningYOLO/dataBase.xlsx
+++ b/RunningYOLO/dataBase.xlsx
@@ -396,7 +396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
@@ -406,7 +406,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -791,19 +791,19 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1715</v>
+        <v>1710.5</v>
       </c>
       <c r="B21" t="n">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C21" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D21" t="n">
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -831,21 +831,101 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>618</v>
+        <v>616.5</v>
       </c>
       <c r="B23" t="n">
+        <v>66</v>
+      </c>
+      <c r="C23" t="n">
         <v>68</v>
       </c>
-      <c r="C23" t="n">
-        <v>69</v>
-      </c>
       <c r="D23" t="n">
-        <v>49</v>
+        <v>50.5</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1071</v>
+      </c>
+      <c r="B24" t="n">
+        <v>876</v>
+      </c>
+      <c r="C24" t="n">
+        <v>207</v>
+      </c>
+      <c r="D24" t="n">
+        <v>109</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>573</v>
+      </c>
+      <c r="B25" t="n">
+        <v>624</v>
+      </c>
+      <c r="C25" t="n">
+        <v>212</v>
+      </c>
+      <c r="D25" t="n">
+        <v>164</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>685</v>
+      </c>
+      <c r="B26" t="n">
+        <v>63</v>
+      </c>
+      <c r="C26" t="n">
+        <v>70</v>
+      </c>
+      <c r="D26" t="n">
+        <v>52</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>558</v>
+      </c>
+      <c r="B27" t="n">
+        <v>783</v>
+      </c>
+      <c r="C27" t="n">
+        <v>219</v>
+      </c>
+      <c r="D27" t="n">
+        <v>98</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -861,136 +941,154 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84:XFD84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.56391" defaultRowHeight="15.8"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>409.776611328125</v>
+        <v>391.5485382080078</v>
       </c>
       <c r="B2" t="n">
-        <v>705.09228515625</v>
+        <v>723.5057678222656</v>
       </c>
       <c r="C2" t="n">
-        <v>57.154052734375</v>
+        <v>68.50962829589844</v>
       </c>
       <c r="D2" t="n">
-        <v>121.12744140625</v>
+        <v>126.3204650878906</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.06197907942643482</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>257.52734375</v>
+        <v>255.0567474365234</v>
       </c>
       <c r="B3" t="n">
-        <v>839.0556640625</v>
+        <v>845.8869361877441</v>
       </c>
       <c r="C3" t="n">
-        <v>108.1357421875</v>
+        <v>100.0708427429199</v>
       </c>
       <c r="D3" t="n">
-        <v>80.1630859375</v>
+        <v>62.59829330444336</v>
       </c>
       <c r="E3" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1369.40625</v>
+        <v>1356.703125</v>
       </c>
       <c r="B4" t="n">
-        <v>812.038818359375</v>
+        <v>808.5194091796875</v>
       </c>
       <c r="C4" t="n">
-        <v>128.3359375</v>
+        <v>140.66796875</v>
       </c>
       <c r="D4" t="n">
-        <v>78.209228515625</v>
+        <v>81.6046142578125</v>
       </c>
       <c r="E4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>457.87353515625</v>
+        <v>457.7341918945312</v>
       </c>
       <c r="B5" t="n">
-        <v>520.9365234375</v>
+        <v>524.9920654296875</v>
       </c>
       <c r="C5" t="n">
-        <v>49.90966796875</v>
+        <v>51.23870849609375</v>
       </c>
       <c r="D5" t="n">
-        <v>103.845703125</v>
+        <v>100.230712890625</v>
       </c>
       <c r="E5" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>727.327880859375</v>
+        <v>740.0727462768555</v>
       </c>
       <c r="B6" t="n">
-        <v>868.2576904296875</v>
+        <v>868.8518028259277</v>
       </c>
       <c r="C6" t="n">
-        <v>145.890625</v>
+        <v>151.65283203125</v>
       </c>
       <c r="D6" t="n">
-        <v>71.99131774902344</v>
+        <v>71.40597867965698</v>
       </c>
       <c r="E6" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1350500827324325</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>190.96875</v>
+        <v>182.12109375</v>
       </c>
       <c r="B7" t="n">
-        <v>479.0009765625</v>
+        <v>479.5001220703125</v>
       </c>
       <c r="C7" t="n">
-        <v>35.9384765625</v>
+        <v>41.4923095703125</v>
       </c>
       <c r="D7" t="n">
-        <v>82.944091796875</v>
+        <v>81.74301147460938</v>
       </c>
       <c r="E7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1013,125 +1111,146 @@
       <c r="F8" t="n">
         <v>0</v>
       </c>
+      <c r="G8" t="n">
+        <v>0.1958638926913953</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1519.00732421875</v>
+        <v>1529.150404930115</v>
       </c>
       <c r="B9" t="n">
-        <v>786.68798828125</v>
+        <v>787.0462656021118</v>
       </c>
       <c r="C9" t="n">
-        <v>119.30517578125</v>
+        <v>118.2134866714478</v>
       </c>
       <c r="D9" t="n">
-        <v>78.08203125</v>
+        <v>76.68961334228516</v>
       </c>
       <c r="E9" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>82.75</v>
+        <v>77.6875</v>
       </c>
       <c r="B10" t="n">
-        <v>489</v>
+        <v>493.5</v>
       </c>
       <c r="C10" t="n">
-        <v>32.5068359375</v>
+        <v>31.126708984375</v>
       </c>
       <c r="D10" t="n">
-        <v>78.494140625</v>
+        <v>73.87353515625</v>
       </c>
       <c r="E10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.08509720625416108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1648.60888671875</v>
+        <v>1654.475034713745</v>
       </c>
       <c r="B11" t="n">
-        <v>765.9011840820312</v>
+        <v>766.2144577503204</v>
       </c>
       <c r="C11" t="n">
-        <v>98.375732421875</v>
+        <v>103.2983427047729</v>
       </c>
       <c r="D11" t="n">
-        <v>64.39617919921875</v>
+        <v>66.00545382499695</v>
       </c>
       <c r="E11" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1766.7294921875</v>
+        <v>1762.130699157714</v>
       </c>
       <c r="B12" t="n">
-        <v>742.046875</v>
+        <v>744.7113037109375</v>
       </c>
       <c r="C12" t="n">
-        <v>77.80224609375</v>
+        <v>91.88126754760742</v>
       </c>
       <c r="D12" t="n">
-        <v>65.7333984375</v>
+        <v>64.16197967529297</v>
       </c>
       <c r="E12" t="n">
-        <v>15.5</v>
+        <v>22.5</v>
       </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>234.9375</v>
+        <v>223.7421875</v>
       </c>
       <c r="B13" t="n">
-        <v>164.5615234375</v>
+        <v>164.1951904296875</v>
       </c>
       <c r="C13" t="n">
-        <v>31.96875</v>
+        <v>41.62109375</v>
       </c>
       <c r="D13" t="n">
-        <v>64.5009765625</v>
+        <v>63.5626220703125</v>
       </c>
       <c r="E13" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.00417746430646679</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>48.6630859375</v>
+        <v>42.30197143554688</v>
       </c>
       <c r="B14" t="n">
-        <v>492.3447265625</v>
+        <v>494.0420227050781</v>
       </c>
       <c r="C14" t="n">
-        <v>31.0556640625</v>
+        <v>30.56423950195312</v>
       </c>
       <c r="D14" t="n">
-        <v>77.812255859375</v>
+        <v>74.33788299560547</v>
       </c>
       <c r="E14" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.1285629858839647</v>
       </c>
     </row>
     <row r="15">
@@ -1153,64 +1272,76 @@
       <c r="F15" t="n">
         <v>0</v>
       </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" t="n">
+        <v>495.3948974609375</v>
+      </c>
+      <c r="C16" t="n">
+        <v>28.81640625</v>
+      </c>
+      <c r="D16" t="n">
+        <v>76.874755859375</v>
+      </c>
+      <c r="E16" t="n">
         <v>18</v>
       </c>
-      <c r="B16" t="n">
-        <v>495.1591796875</v>
-      </c>
-      <c r="C16" t="n">
-        <v>27.53125</v>
-      </c>
-      <c r="D16" t="n">
-        <v>76.998046875</v>
-      </c>
-      <c r="E16" t="n">
-        <v>15</v>
-      </c>
       <c r="F16" t="n">
         <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.1158891604734214</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>30.14111328125</v>
+        <v>31.57131958007812</v>
       </c>
       <c r="B17" t="n">
-        <v>277.95361328125</v>
+        <v>276.6221008300781</v>
       </c>
       <c r="C17" t="n">
-        <v>43.9208984375</v>
+        <v>48.18255615234375</v>
       </c>
       <c r="D17" t="n">
-        <v>38.57763671875</v>
+        <v>39.53610229492188</v>
       </c>
       <c r="E17" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0491430720802743</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>238.5556640625</v>
+        <v>247.1137161254883</v>
       </c>
       <c r="B18" t="n">
-        <v>458.0009765625</v>
+        <v>468.9453201293945</v>
       </c>
       <c r="C18" t="n">
-        <v>47.2568359375</v>
+        <v>46.14263153076172</v>
       </c>
       <c r="D18" t="n">
-        <v>91.158203125</v>
+        <v>89.52467346191406</v>
       </c>
       <c r="E18" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1231,7 +1362,10 @@
         <v>14.5</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.08082831388896153</v>
       </c>
     </row>
     <row r="20">
@@ -1248,49 +1382,58 @@
         <v>40.45208740234375</v>
       </c>
       <c r="E20" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.131906161505094</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>270.28125</v>
+        <v>268.640625</v>
       </c>
       <c r="B21" t="n">
-        <v>161.498046875</v>
+        <v>163.7490234375</v>
       </c>
       <c r="C21" t="n">
-        <v>31.685546875</v>
+        <v>34.3427734375</v>
       </c>
       <c r="D21" t="n">
-        <v>63.689453125</v>
+        <v>56.8447265625</v>
       </c>
       <c r="E21" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1652.202056884766</v>
+        <v>1636.100064277648</v>
       </c>
       <c r="B22" t="n">
-        <v>113.6785583496094</v>
+        <v>108.9899549484253</v>
       </c>
       <c r="C22" t="n">
-        <v>48.93661499023438</v>
+        <v>61.12301921844482</v>
       </c>
       <c r="D22" t="n">
-        <v>37.10293579101562</v>
+        <v>38.94071674346924</v>
       </c>
       <c r="E22" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1313,125 +1456,146 @@
       <c r="F23" t="n">
         <v>0</v>
       </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1228.390625</v>
+        <v>1223.173828125</v>
       </c>
       <c r="B24" t="n">
-        <v>16.1298828125</v>
+        <v>25.1412353515625</v>
       </c>
       <c r="C24" t="n">
-        <v>82.0185546875</v>
+        <v>74.3773193359375</v>
       </c>
       <c r="D24" t="n">
-        <v>48.8671875</v>
+        <v>38.1083984375</v>
       </c>
       <c r="E24" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>87.0947265625</v>
+        <v>87.13092041015625</v>
       </c>
       <c r="B25" t="n">
-        <v>262.376953125</v>
+        <v>264.4610595703125</v>
       </c>
       <c r="C25" t="n">
-        <v>47.74664306640625</v>
+        <v>43.42166519165039</v>
       </c>
       <c r="D25" t="n">
-        <v>40.32666015625</v>
+        <v>38.89541625976562</v>
       </c>
       <c r="E25" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.005174114936943642</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>144.726806640625</v>
+        <v>138.6704254150391</v>
       </c>
       <c r="B26" t="n">
-        <v>253.6388854980469</v>
+        <v>246.2899303436279</v>
       </c>
       <c r="C26" t="n">
-        <v>49.25048828125</v>
+        <v>53.51565551757812</v>
       </c>
       <c r="D26" t="n">
-        <v>39.07986450195312</v>
+        <v>43.06749153137207</v>
       </c>
       <c r="E26" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.04007850355378224</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1679.5</v>
+        <v>1680.1875</v>
       </c>
       <c r="B27" t="n">
-        <v>72</v>
+        <v>64.5</v>
       </c>
       <c r="C27" t="n">
-        <v>52.6875</v>
+        <v>52.0859375</v>
       </c>
       <c r="D27" t="n">
-        <v>32.5</v>
+        <v>35.0625</v>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.005956872813605726</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1718.1484375</v>
+        <v>1708.3935546875</v>
       </c>
       <c r="B28" t="n">
-        <v>127.9384765625</v>
+        <v>120.7423095703125</v>
       </c>
       <c r="C28" t="n">
-        <v>47.4398193359375</v>
+        <v>55.05497741699219</v>
       </c>
       <c r="D28" t="n">
-        <v>35.0302734375</v>
+        <v>36.6287841796875</v>
       </c>
       <c r="E28" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>133.2197265625</v>
+        <v>127.5693664550781</v>
       </c>
       <c r="B29" t="n">
-        <v>474.68359375</v>
+        <v>483.5213623046875</v>
       </c>
       <c r="C29" t="n">
-        <v>44.0653076171875</v>
+        <v>40.68954086303711</v>
       </c>
       <c r="D29" t="n">
-        <v>94.326904296875</v>
+        <v>81.22896575927734</v>
       </c>
       <c r="E29" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.01655050039929995</v>
       </c>
     </row>
     <row r="30">
@@ -1451,26 +1615,32 @@
         <v>15</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.140965938577035</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1773.986328125</v>
+        <v>1769.4931640625</v>
       </c>
       <c r="B31" t="n">
-        <v>134.015625</v>
+        <v>134.0078125</v>
       </c>
       <c r="C31" t="n">
-        <v>38.529296875</v>
+        <v>45.7646484375</v>
       </c>
       <c r="D31" t="n">
-        <v>36.015625</v>
+        <v>35.5078125</v>
       </c>
       <c r="E31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1488,10 +1658,13 @@
         <v>37.00390625</v>
       </c>
       <c r="E32" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03355602756241786</v>
       </c>
     </row>
     <row r="33">
@@ -1513,6 +1686,9 @@
       <c r="F33" t="n">
         <v>0</v>
       </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1533,24 +1709,30 @@
       <c r="F34" t="n">
         <v>0</v>
       </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1626.84375</v>
+        <v>1621.48046875</v>
       </c>
       <c r="B35" t="n">
-        <v>59.03125</v>
+        <v>58.50390625</v>
       </c>
       <c r="C35" t="n">
-        <v>50.0390625</v>
+        <v>58.8798828125</v>
       </c>
       <c r="D35" t="n">
-        <v>33.0078125</v>
+        <v>32.8759765625</v>
       </c>
       <c r="E35" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1559,19 +1741,22 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>498.0322265625</v>
+        <v>500.508056640625</v>
       </c>
       <c r="C36" t="n">
-        <v>14.96875</v>
+        <v>15.7421875</v>
       </c>
       <c r="D36" t="n">
-        <v>75.5966796875</v>
+        <v>75.899169921875</v>
       </c>
       <c r="E36" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1588,9 +1773,12 @@
         <v>53.607421875</v>
       </c>
       <c r="E37" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1608,10 +1796,13 @@
         <v>37.0546875</v>
       </c>
       <c r="E38" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0006313278836774386</v>
       </c>
     </row>
     <row r="39">
@@ -1628,10 +1819,13 @@
         <v>121.1875</v>
       </c>
       <c r="E39" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1648,30 +1842,36 @@
         <v>46</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F40" t="n">
         <v>1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>480</v>
+        <v>482.5</v>
       </c>
       <c r="B41" t="n">
-        <v>124</v>
+        <v>125.5</v>
       </c>
       <c r="C41" t="n">
-        <v>34</v>
+        <v>40.125</v>
       </c>
       <c r="D41" t="n">
-        <v>62</v>
+        <v>52.375</v>
       </c>
       <c r="E41" t="n">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="F41" t="n">
         <v>1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1693,64 +1893,76 @@
       <c r="F42" t="n">
         <v>0</v>
       </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1743.59375</v>
+        <v>1738.8984375</v>
       </c>
       <c r="B43" t="n">
-        <v>81.5</v>
+        <v>77.875</v>
       </c>
       <c r="C43" t="n">
-        <v>38.40625</v>
+        <v>51.1015625</v>
       </c>
       <c r="D43" t="n">
-        <v>32.5</v>
+        <v>34.875</v>
       </c>
       <c r="E43" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1320</v>
+        <v>1308</v>
       </c>
       <c r="B44" t="n">
-        <v>30</v>
+        <v>28.25</v>
       </c>
       <c r="C44" t="n">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D44" t="n">
-        <v>36</v>
+        <v>38.25</v>
       </c>
       <c r="E44" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1114.75</v>
+        <v>1122.80859375</v>
       </c>
       <c r="B45" t="n">
-        <v>13.5</v>
+        <v>20.0546875</v>
       </c>
       <c r="C45" t="n">
-        <v>75</v>
+        <v>75.90625</v>
       </c>
       <c r="D45" t="n">
-        <v>41.5</v>
+        <v>38.0859375</v>
       </c>
       <c r="E45" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1768,89 +1980,104 @@
         <v>106.3125</v>
       </c>
       <c r="E46" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.01960626549389128</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>929.5</v>
+        <v>932.0625</v>
       </c>
       <c r="B47" t="n">
-        <v>21.5</v>
+        <v>27.0625</v>
       </c>
       <c r="C47" t="n">
-        <v>81.5</v>
+        <v>81.8125</v>
       </c>
       <c r="D47" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>593</v>
+        <v>590.5</v>
       </c>
       <c r="B48" t="n">
-        <v>850.5</v>
+        <v>847.8125</v>
       </c>
       <c r="C48" t="n">
-        <v>122.5</v>
+        <v>135.3125</v>
       </c>
       <c r="D48" t="n">
-        <v>80.5</v>
+        <v>82.4375</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1015</v>
+        <v>1027.6875</v>
       </c>
       <c r="B49" t="n">
-        <v>16</v>
+        <v>19.3203125</v>
       </c>
       <c r="C49" t="n">
-        <v>85</v>
+        <v>81.765625</v>
       </c>
       <c r="D49" t="n">
-        <v>42.5</v>
+        <v>42.89453125</v>
       </c>
       <c r="E49" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>780.5</v>
+        <v>785.828125</v>
       </c>
       <c r="B50" t="n">
-        <v>25</v>
+        <v>27.78125</v>
       </c>
       <c r="C50" t="n">
-        <v>82</v>
+        <v>81.3125</v>
       </c>
       <c r="D50" t="n">
-        <v>43</v>
+        <v>40.03125</v>
       </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1859,18 +2086,21 @@
         <v>687</v>
       </c>
       <c r="B51" t="n">
-        <v>37.5</v>
+        <v>36.578125</v>
       </c>
       <c r="C51" t="n">
-        <v>74</v>
+        <v>80.625</v>
       </c>
       <c r="D51" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E51" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1888,29 +2118,35 @@
         <v>84</v>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.1105491356509833</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>488.5</v>
+        <v>494.6875</v>
       </c>
       <c r="B53" t="n">
-        <v>55.5</v>
+        <v>52.6875</v>
       </c>
       <c r="C53" t="n">
-        <v>73.5</v>
+        <v>70.0625</v>
       </c>
       <c r="D53" t="n">
-        <v>35</v>
+        <v>36.375</v>
       </c>
       <c r="E53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1928,29 +2164,35 @@
         <v>51.5</v>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>120</v>
+        <v>149.68359375</v>
       </c>
       <c r="B55" t="n">
-        <v>822</v>
+        <v>824.7109375</v>
       </c>
       <c r="C55" t="n">
         <v>86</v>
       </c>
       <c r="D55" t="n">
-        <v>63.5</v>
+        <v>59.845703125</v>
       </c>
       <c r="E55" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,110 +2210,128 @@
         <v>34.5</v>
       </c>
       <c r="E56" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1532.5</v>
+        <v>1540.1875</v>
       </c>
       <c r="B57" t="n">
-        <v>42</v>
+        <v>43.375</v>
       </c>
       <c r="C57" t="n">
-        <v>56.5</v>
+        <v>58.0625</v>
       </c>
       <c r="D57" t="n">
-        <v>37</v>
+        <v>35.625</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.03650078174378763</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1455.5</v>
+        <v>1459.765625</v>
       </c>
       <c r="B58" t="n">
-        <v>33</v>
+        <v>32.09375</v>
       </c>
       <c r="C58" t="n">
-        <v>66</v>
+        <v>66.40625</v>
       </c>
       <c r="D58" t="n">
-        <v>37.5</v>
+        <v>37.578125</v>
       </c>
       <c r="E58" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03764753588834564</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>444</v>
+        <v>454.71875</v>
       </c>
       <c r="B59" t="n">
-        <v>442</v>
+        <v>447.78125</v>
       </c>
       <c r="C59" t="n">
-        <v>49.5</v>
+        <v>51.171875</v>
       </c>
       <c r="D59" t="n">
-        <v>76</v>
+        <v>83.59375</v>
       </c>
       <c r="E59" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.02899284153905967</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B60" t="n">
         <v>151</v>
       </c>
       <c r="C60" t="n">
-        <v>45.5</v>
+        <v>44.375</v>
       </c>
       <c r="D60" t="n">
-        <v>53</v>
+        <v>54.5</v>
       </c>
       <c r="E60" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.03924360400444939</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1785</v>
+        <v>1784.9375</v>
       </c>
       <c r="B61" t="n">
-        <v>82</v>
+        <v>85.0625</v>
       </c>
       <c r="C61" t="n">
-        <v>43.5</v>
+        <v>45.46875</v>
       </c>
       <c r="D61" t="n">
-        <v>32</v>
+        <v>33.25</v>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.06489577387851432</v>
       </c>
     </row>
     <row r="62">
@@ -2091,26 +2351,32 @@
         <v>2</v>
       </c>
       <c r="F62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1393.5</v>
+        <v>1385.328125</v>
       </c>
       <c r="B63" t="n">
-        <v>26</v>
+        <v>24.6875</v>
       </c>
       <c r="C63" t="n">
-        <v>59</v>
+        <v>65.4375</v>
       </c>
       <c r="D63" t="n">
-        <v>37</v>
+        <v>38.84375</v>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2133,6 +2399,9 @@
       <c r="F64" t="n">
         <v>0</v>
       </c>
+      <c r="G64" t="n">
+        <v>0.1781544256120527</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2151,47 +2420,56 @@
         <v>2</v>
       </c>
       <c r="F65" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1824</v>
+        <v>1823.84375</v>
       </c>
       <c r="B66" t="n">
-        <v>140</v>
+        <v>138.84375</v>
       </c>
       <c r="C66" t="n">
-        <v>42.5</v>
+        <v>45.234375</v>
       </c>
       <c r="D66" t="n">
-        <v>34</v>
+        <v>33.5625</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.04356354185377623</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1834.5</v>
+        <v>1837.0234375</v>
       </c>
       <c r="B67" t="n">
-        <v>96.5</v>
+        <v>99.8515625</v>
       </c>
       <c r="C67" t="n">
-        <v>36</v>
+        <v>43.65625</v>
       </c>
       <c r="D67" t="n">
-        <v>31.5</v>
+        <v>31.8984375</v>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.02474572472232577</v>
       </c>
     </row>
     <row r="68">
@@ -2208,10 +2486,13 @@
         <v>34</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F68" t="n">
         <v>1</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2228,29 +2509,35 @@
         <v>46</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>50</v>
+        <v>49.625</v>
       </c>
       <c r="B70" t="n">
-        <v>808</v>
+        <v>808.5625</v>
       </c>
       <c r="C70" t="n">
-        <v>63</v>
+        <v>77.1875</v>
       </c>
       <c r="D70" t="n">
-        <v>57</v>
+        <v>57.625</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2268,9 +2555,311 @@
         <v>32</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F71" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1657</v>
+      </c>
+      <c r="B72" t="n">
+        <v>824</v>
+      </c>
+      <c r="C72" t="n">
+        <v>119</v>
+      </c>
+      <c r="D72" t="n">
+        <v>87</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.04975306383757088</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>215.375</v>
+      </c>
+      <c r="B73" t="n">
+        <v>233.875</v>
+      </c>
+      <c r="C73" t="n">
+        <v>60.125</v>
+      </c>
+      <c r="D73" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="E73" t="n">
+        <v>4</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1326</v>
+      </c>
+      <c r="B74" t="n">
+        <v>66</v>
+      </c>
+      <c r="C74" t="n">
+        <v>80</v>
+      </c>
+      <c r="D74" t="n">
+        <v>40</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.01189296333002973</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>832</v>
+      </c>
+      <c r="B75" t="n">
+        <v>72</v>
+      </c>
+      <c r="C75" t="n">
+        <v>89</v>
+      </c>
+      <c r="D75" t="n">
+        <v>43</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.04678684464015412</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1895.5</v>
+      </c>
+      <c r="B76" t="n">
+        <v>716.5</v>
+      </c>
+      <c r="C76" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="D76" t="n">
+        <v>60</v>
+      </c>
+      <c r="E76" t="n">
+        <v>2</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B77" t="n">
+        <v>288.3125</v>
+      </c>
+      <c r="C77" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="D77" t="n">
+        <v>38</v>
+      </c>
+      <c r="E77" t="n">
+        <v>5</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1174.625</v>
+      </c>
+      <c r="B78" t="n">
+        <v>839.375</v>
+      </c>
+      <c r="C78" t="n">
+        <v>156.375</v>
+      </c>
+      <c r="D78" t="n">
+        <v>72.375</v>
+      </c>
+      <c r="E78" t="n">
+        <v>4</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.01034495970574337</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1869.9375</v>
+      </c>
+      <c r="B79" t="n">
+        <v>148.875</v>
+      </c>
+      <c r="C79" t="n">
+        <v>43.6875</v>
+      </c>
+      <c r="D79" t="n">
+        <v>30.9375</v>
+      </c>
+      <c r="E79" t="n">
+        <v>5</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03236550819230899</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>315.5</v>
+      </c>
+      <c r="B80" t="n">
+        <v>467.5</v>
+      </c>
+      <c r="C80" t="n">
+        <v>53</v>
+      </c>
+      <c r="D80" t="n">
+        <v>83</v>
+      </c>
+      <c r="E80" t="n">
+        <v>3</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>399.5</v>
+      </c>
+      <c r="B81" t="n">
+        <v>145.25</v>
+      </c>
+      <c r="C81" t="n">
+        <v>39</v>
+      </c>
+      <c r="D81" t="n">
+        <v>53.25</v>
+      </c>
+      <c r="E81" t="n">
+        <v>3</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.06319720295945007</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>359</v>
+      </c>
+      <c r="B82" t="n">
+        <v>836.25</v>
+      </c>
+      <c r="C82" t="n">
+        <v>126</v>
+      </c>
+      <c r="D82" t="n">
+        <v>69.875</v>
+      </c>
+      <c r="E82" t="n">
+        <v>4</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02033989027164459</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1367.75</v>
+      </c>
+      <c r="B83" t="n">
+        <v>76.25</v>
+      </c>
+      <c r="C83" t="n">
+        <v>76</v>
+      </c>
+      <c r="D83" t="n">
+        <v>40.25</v>
+      </c>
+      <c r="E83" t="n">
+        <v>3</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>70</v>
+      </c>
+      <c r="B84" t="n">
+        <v>197</v>
+      </c>
+      <c r="C84" t="n">
+        <v>51</v>
+      </c>
+      <c r="D84" t="n">
+        <v>32</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" t="n">
         <v>0</v>
       </c>
     </row>
